--- a/backup/final_panel_touch_lcd_backcover.xlsx
+++ b/backup/final_panel_touch_lcd_backcover.xlsx
@@ -21,13 +21,13 @@
     <sheet name="Sheet2" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'black and white print'!$D$1:$D$1208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'black and white print'!$D$1:$D$1223</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'final list'!$C$2:$D$167</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'final list'!$A$2:$T$254</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2488" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="607">
   <si>
     <t xml:space="preserve">Y5-2 White </t>
   </si>
@@ -1639,9 +1639,6 @@
     <t>Charging Jack</t>
   </si>
   <si>
-    <t>MOTO E /E2</t>
-  </si>
-  <si>
     <t>Sold</t>
   </si>
   <si>
@@ -1790,6 +1787,117 @@
   </si>
   <si>
     <t>X6</t>
+  </si>
+  <si>
+    <t>cs1</t>
+  </si>
+  <si>
+    <t>LT700</t>
+  </si>
+  <si>
+    <t>177A</t>
+  </si>
+  <si>
+    <t>177D</t>
+  </si>
+  <si>
+    <t>177C</t>
+  </si>
+  <si>
+    <t>177B</t>
+  </si>
+  <si>
+    <t>115A</t>
+  </si>
+  <si>
+    <t>Iphone 6 Oroginal</t>
+  </si>
+  <si>
+    <t>Note 3 TFT</t>
+  </si>
+  <si>
+    <t>154A</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>LG Gpro 2</t>
+  </si>
+  <si>
+    <t>130B</t>
+  </si>
+  <si>
+    <t>Ultra Max</t>
+  </si>
+  <si>
+    <t>Amazone</t>
+  </si>
+  <si>
+    <t>151A</t>
+  </si>
+  <si>
+    <t>J7 Original LED</t>
+  </si>
+  <si>
+    <t>Moto Z2 LED</t>
+  </si>
+  <si>
+    <t>Moto E/E2</t>
+  </si>
+  <si>
+    <t>184A</t>
+  </si>
+  <si>
+    <t>R750 E50 (24 pin)</t>
+  </si>
+  <si>
+    <t>A510</t>
+  </si>
+  <si>
+    <t>154B</t>
+  </si>
+  <si>
+    <t>154C</t>
+  </si>
+  <si>
+    <t>154D</t>
+  </si>
+  <si>
+    <t>154E</t>
+  </si>
+  <si>
+    <t>154F</t>
+  </si>
+  <si>
+    <t>A310</t>
+  </si>
+  <si>
+    <t>J110</t>
+  </si>
+  <si>
+    <t>154G</t>
+  </si>
+  <si>
+    <t>J730</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>R550 E50 (24 pin)</t>
+  </si>
+  <si>
+    <t>208A</t>
+  </si>
+  <si>
+    <t>A37 Original</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -1936,7 +2044,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2060,6 +2168,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2521,7 +2635,6 @@
     <xf numFmtId="0" fontId="17" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2531,6 +2644,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2597,6 +2711,70 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1089319</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3987506" cy="771525"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1698919" y="96288225"/>
+          <a:ext cx="3987506" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="13462">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw dist="38100" dir="2700000" algn="bl" rotWithShape="0">
+                  <a:schemeClr val="accent5"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Accessories</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15018,7 +15196,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:A5" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -26839,7 +27017,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="98" t="s">
         <v>327</v>
       </c>
       <c r="B1" t="s">
@@ -26847,8 +27025,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="99" t="s">
-        <v>528</v>
+      <c r="A3" s="98" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -26858,7 +27036,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="84" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -26868,10 +27046,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1208"/>
+  <dimension ref="A1:Z1223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M276" sqref="M276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26906,12 +27084,12 @@
         <v>331</v>
       </c>
       <c r="G1" s="94" t="s">
-        <v>521</v>
-      </c>
-      <c r="H1" s="100" t="s">
-        <v>531</v>
-      </c>
-      <c r="I1" s="100" t="s">
+        <v>520</v>
+      </c>
+      <c r="H1" s="99" t="s">
+        <v>530</v>
+      </c>
+      <c r="I1" s="99" t="s">
         <v>516</v>
       </c>
     </row>
@@ -27070,7 +27248,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C7" s="43" t="s">
         <v>23</v>
@@ -27100,7 +27278,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C8" s="43" t="s">
         <v>23</v>
@@ -27130,7 +27308,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C9" s="43" t="s">
         <v>23</v>
@@ -27190,7 +27368,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C11" s="43" t="s">
         <v>49</v>
@@ -27220,7 +27398,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="47" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>6</v>
@@ -27250,7 +27428,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="47" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C13" s="43" t="s">
         <v>55</v>
@@ -27283,7 +27461,7 @@
         <v>316</v>
       </c>
       <c r="C14" s="43" t="s">
-        <v>55</v>
+        <v>580</v>
       </c>
       <c r="D14" s="44" t="s">
         <v>2</v>
@@ -27299,7 +27477,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>55</v>
@@ -27373,7 +27551,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="47" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C18" s="43" t="s">
         <v>55</v>
@@ -28294,7 +28472,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="47" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C51" s="43" t="s">
         <v>55</v>
@@ -28324,7 +28502,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="47" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C52" s="43" t="s">
         <v>55</v>
@@ -28351,10 +28529,10 @@
     </row>
     <row r="53" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A53" s="34" t="s">
+        <v>522</v>
+      </c>
+      <c r="B53" s="47" t="s">
         <v>523</v>
-      </c>
-      <c r="B53" s="47" t="s">
-        <v>524</v>
       </c>
       <c r="C53" s="43" t="s">
         <v>55</v>
@@ -28378,10 +28556,10 @@
     </row>
     <row r="54" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
+        <v>524</v>
+      </c>
+      <c r="B54" s="47" t="s">
         <v>525</v>
-      </c>
-      <c r="B54" s="47" t="s">
-        <v>526</v>
       </c>
       <c r="C54" s="43" t="s">
         <v>55</v>
@@ -28391,7 +28569,7 @@
       </c>
       <c r="E54" s="44"/>
       <c r="H54" s="76" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -28429,7 +28607,7 @@
         <v>52</v>
       </c>
       <c r="B56" s="47" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C56" s="43" t="s">
         <v>55</v>
@@ -28489,7 +28667,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="47" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C58" s="43" t="s">
         <v>55</v>
@@ -28519,7 +28697,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="47" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C59" s="43" t="s">
         <v>55</v>
@@ -28549,7 +28727,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="47" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C60" s="43" t="s">
         <v>325</v>
@@ -28579,7 +28757,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="47" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C61" s="43" t="s">
         <v>325</v>
@@ -28817,7 +28995,7 @@
         <v>3</v>
       </c>
       <c r="G69" s="95">
-        <f t="shared" ref="G69:G132" si="1">(F69-E69)</f>
+        <f t="shared" ref="G69:G136" si="1">(F69-E69)</f>
         <v>0</v>
       </c>
       <c r="H69" s="76">
@@ -28867,7 +29045,7 @@
         <v>68</v>
       </c>
       <c r="B72" s="47" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C72" s="43" t="s">
         <v>55</v>
@@ -28897,7 +29075,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="47" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C73" s="43" t="s">
         <v>55</v>
@@ -28957,7 +29135,7 @@
         <v>71</v>
       </c>
       <c r="B75" s="47" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C75" s="43" t="s">
         <v>55</v>
@@ -28987,7 +29165,7 @@
         <v>72</v>
       </c>
       <c r="B76" s="47" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C76" s="43" t="s">
         <v>55</v>
@@ -29047,7 +29225,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="47" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C78" s="43" t="s">
         <v>55</v>
@@ -29077,7 +29255,7 @@
         <v>75</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C79" s="43" t="s">
         <v>55</v>
@@ -29107,7 +29285,7 @@
         <v>76</v>
       </c>
       <c r="B80" s="47" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C80" s="43" t="s">
         <v>55</v>
@@ -29197,7 +29375,7 @@
         <v>79</v>
       </c>
       <c r="B83" s="47" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C83" s="43" t="s">
         <v>55</v>
@@ -29384,7 +29562,7 @@
         <v>86</v>
       </c>
       <c r="B90" s="47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C90" s="43" t="s">
         <v>63</v>
@@ -29663,7 +29841,7 @@
         <v>97</v>
       </c>
       <c r="B101" s="47" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C101" s="43" t="s">
         <v>63</v>
@@ -29689,35 +29867,65 @@
       </c>
     </row>
     <row r="102" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A102" s="49">
+      <c r="A102" s="34">
         <v>98</v>
       </c>
-      <c r="B102" s="47"/>
-      <c r="C102" s="43"/>
-      <c r="D102" s="44"/>
-      <c r="E102" s="44"/>
+      <c r="B102" s="47" t="s">
+        <v>581</v>
+      </c>
+      <c r="C102" s="43" t="s">
+        <v>580</v>
+      </c>
+      <c r="D102" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="44">
+        <v>1</v>
+      </c>
+      <c r="F102" s="39">
+        <v>1</v>
+      </c>
       <c r="G102" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A103" s="34"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="43"/>
-      <c r="D103" s="44"/>
-      <c r="E103" s="44"/>
+      <c r="A103" s="34">
+        <v>99</v>
+      </c>
+      <c r="B103" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="44">
+        <v>1</v>
+      </c>
+      <c r="F103" s="39">
+        <v>1</v>
+      </c>
       <c r="G103" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H103" s="76">
+        <v>1350</v>
+      </c>
+      <c r="I103" s="61">
+        <v>1900</v>
+      </c>
     </row>
     <row r="104" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A104" s="34">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B104" s="48" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C104" s="44" t="s">
         <v>10</v>
@@ -29736,18 +29944,18 @@
         <v>0</v>
       </c>
       <c r="H104" s="76">
-        <v>1350</v>
+        <v>1550</v>
       </c>
       <c r="I104" s="61">
-        <v>1900</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A105" s="34">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B105" s="48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C105" s="44" t="s">
         <v>10</v>
@@ -29766,7 +29974,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="76">
-        <v>1550</v>
+        <v>1500</v>
       </c>
       <c r="I105" s="61">
         <v>2000</v>
@@ -29774,10 +29982,10 @@
     </row>
     <row r="106" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A106" s="34">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B106" s="48" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C106" s="44" t="s">
         <v>10</v>
@@ -29804,10 +30012,10 @@
     </row>
     <row r="107" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A107" s="34">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B107" s="48" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C107" s="44" t="s">
         <v>10</v>
@@ -29834,10 +30042,10 @@
     </row>
     <row r="108" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A108" s="34">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B108" s="48" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C108" s="44" t="s">
         <v>10</v>
@@ -29864,10 +30072,10 @@
     </row>
     <row r="109" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A109" s="34">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B109" s="48" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C109" s="44" t="s">
         <v>10</v>
@@ -29886,7 +30094,7 @@
         <v>0</v>
       </c>
       <c r="H109" s="76">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I109" s="61">
         <v>2000</v>
@@ -29894,10 +30102,10 @@
     </row>
     <row r="110" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A110" s="34">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B110" s="48" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C110" s="44" t="s">
         <v>10</v>
@@ -29924,10 +30132,10 @@
     </row>
     <row r="111" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A111" s="34">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B111" s="48" t="s">
-        <v>34</v>
+        <v>390</v>
       </c>
       <c r="C111" s="44" t="s">
         <v>10</v>
@@ -29946,7 +30154,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="76">
-        <v>1400</v>
+        <v>1550</v>
       </c>
       <c r="I111" s="61">
         <v>2000</v>
@@ -29954,10 +30162,10 @@
     </row>
     <row r="112" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A112" s="34">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B112" s="48" t="s">
-        <v>390</v>
+        <v>529</v>
       </c>
       <c r="C112" s="44" t="s">
         <v>10</v>
@@ -29976,18 +30184,18 @@
         <v>0</v>
       </c>
       <c r="H112" s="76">
-        <v>1550</v>
+        <v>3000</v>
       </c>
       <c r="I112" s="61">
-        <v>2000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A113" s="34">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B113" s="48" t="s">
-        <v>530</v>
+        <v>43</v>
       </c>
       <c r="C113" s="44" t="s">
         <v>10</v>
@@ -30006,18 +30214,18 @@
         <v>0</v>
       </c>
       <c r="H113" s="76">
-        <v>3000</v>
+        <v>2100</v>
       </c>
       <c r="I113" s="61">
-        <v>3600</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A114" s="34">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B114" s="48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C114" s="44" t="s">
         <v>10</v>
@@ -30036,18 +30244,18 @@
         <v>0</v>
       </c>
       <c r="H114" s="76">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="I114" s="61">
-        <v>2800</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A115" s="34">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B115" s="48" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C115" s="44" t="s">
         <v>10</v>
@@ -30074,10 +30282,10 @@
     </row>
     <row r="116" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A116" s="34">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B116" s="48" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C116" s="44" t="s">
         <v>10</v>
@@ -30096,18 +30304,18 @@
         <v>0</v>
       </c>
       <c r="H116" s="76">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I116" s="61">
-        <v>2500</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A117" s="34">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B117" s="48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C117" s="44" t="s">
         <v>10</v>
@@ -30126,18 +30334,18 @@
         <v>0</v>
       </c>
       <c r="H117" s="76">
-        <v>1800</v>
+        <v>2400</v>
       </c>
       <c r="I117" s="61">
-        <v>2800</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A118" s="34">
-        <v>113</v>
-      </c>
-      <c r="B118" s="48" t="s">
-        <v>57</v>
+        <v>114</v>
+      </c>
+      <c r="B118" s="47" t="s">
+        <v>401</v>
       </c>
       <c r="C118" s="44" t="s">
         <v>10</v>
@@ -30146,17 +30354,17 @@
         <v>11</v>
       </c>
       <c r="E118" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F118" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G118" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H118" s="76">
-        <v>2400</v>
+        <v>2600</v>
       </c>
       <c r="I118" s="61">
         <v>3500</v>
@@ -30164,40 +30372,37 @@
     </row>
     <row r="119" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A119" s="34">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B119" s="47" t="s">
-        <v>401</v>
-      </c>
-      <c r="C119" s="44" t="s">
-        <v>10</v>
+        <v>391</v>
+      </c>
+      <c r="C119" s="43" t="s">
+        <v>61</v>
       </c>
       <c r="D119" s="44" t="s">
         <v>11</v>
       </c>
       <c r="E119" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G119" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H119" s="76">
-        <v>2600</v>
-      </c>
-      <c r="I119" s="61">
-        <v>3500</v>
+        <v>920</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="34">
-        <v>115</v>
+      <c r="A120" s="34" t="s">
+        <v>576</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>391</v>
+        <v>577</v>
       </c>
       <c r="C120" s="43" t="s">
         <v>61</v>
@@ -30206,17 +30411,14 @@
         <v>11</v>
       </c>
       <c r="E120" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F120" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G120" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
-      </c>
-      <c r="H120" s="76">
-        <v>920</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
@@ -30280,14 +30482,14 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A123" s="34">
-        <v>118</v>
+      <c r="A123" s="34" t="s">
+        <v>572</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>432</v>
+        <v>570</v>
       </c>
       <c r="C123" s="43" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D123" s="44" t="s">
         <v>11</v>
@@ -30303,51 +30505,51 @@
         <v>0</v>
       </c>
       <c r="H123" s="76">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="I123" s="61">
-        <v>3500</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A124" s="34">
-        <v>119</v>
+      <c r="A124" s="34" t="s">
+        <v>575</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>77</v>
+        <v>538</v>
       </c>
       <c r="C124" s="43" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D124" s="44" t="s">
         <v>11</v>
       </c>
       <c r="E124" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H124" s="76">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="I124" s="61">
-        <v>3000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A125" s="34">
-        <v>120</v>
+      <c r="A125" s="34" t="s">
+        <v>574</v>
       </c>
       <c r="B125" s="47" t="s">
-        <v>79</v>
+        <v>505</v>
       </c>
       <c r="C125" s="43" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D125" s="44" t="s">
         <v>11</v>
@@ -30356,175 +30558,175 @@
         <v>1</v>
       </c>
       <c r="F125" s="39">
-        <v>2</v>
-      </c>
-      <c r="G125" s="96">
+        <v>1</v>
+      </c>
+      <c r="G125" s="95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="76">
+        <v>1500</v>
+      </c>
+      <c r="I125" s="61">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A126" s="34" t="s">
+        <v>573</v>
+      </c>
+      <c r="B126" s="47" t="s">
+        <v>571</v>
+      </c>
+      <c r="C126" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D126" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" s="44">
+        <v>1</v>
+      </c>
+      <c r="F126" s="39">
+        <v>1</v>
+      </c>
+      <c r="G126" s="95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="76">
+        <v>1500</v>
+      </c>
+      <c r="I126" s="61">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A127" s="34">
+        <v>118</v>
+      </c>
+      <c r="B127" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C127" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" s="44">
+        <v>1</v>
+      </c>
+      <c r="F127" s="39">
+        <v>1</v>
+      </c>
+      <c r="G127" s="95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="76">
+        <v>1100</v>
+      </c>
+      <c r="I127" s="61">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A128" s="34">
+        <v>119</v>
+      </c>
+      <c r="B128" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" s="44">
+        <v>2</v>
+      </c>
+      <c r="F128" s="39">
+        <v>2</v>
+      </c>
+      <c r="G128" s="95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H128" s="76">
+        <v>2100</v>
+      </c>
+      <c r="I128" s="61">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A129" s="34">
+        <v>120</v>
+      </c>
+      <c r="B129" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C129" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="44">
+        <v>1</v>
+      </c>
+      <c r="F129" s="39">
+        <v>2</v>
+      </c>
+      <c r="G129" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="H125" s="76">
+      <c r="H129" s="76">
         <v>1450</v>
       </c>
-      <c r="I125" s="61">
+      <c r="I129" s="61">
         <v>2400</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A126" s="34">
-        <v>121</v>
-      </c>
-      <c r="B126" s="47" t="s">
-        <v>350</v>
-      </c>
-      <c r="C126" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E126" s="44">
-        <v>5</v>
-      </c>
-      <c r="F126" s="39">
-        <v>5</v>
-      </c>
-      <c r="G126" s="95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H126" s="76">
-        <v>1250</v>
-      </c>
-      <c r="I126" s="61">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A127" s="34">
-        <v>122</v>
-      </c>
-      <c r="B127" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="C127" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127" s="44">
-        <v>2</v>
-      </c>
-      <c r="F127" s="39">
-        <v>2</v>
-      </c>
-      <c r="G127" s="95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H127" s="76">
-        <v>1800</v>
-      </c>
-      <c r="I127" s="61">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A128" s="34">
-        <v>123</v>
-      </c>
-      <c r="B128" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="C128" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E128" s="44">
-        <v>2</v>
-      </c>
-      <c r="F128" s="39">
-        <v>2</v>
-      </c>
-      <c r="G128" s="95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H128" s="76">
-        <v>1700</v>
-      </c>
-      <c r="I128" s="61">
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A129" s="34">
-        <v>124</v>
-      </c>
-      <c r="B129" s="47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C129" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D129" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="44">
-        <v>6</v>
-      </c>
-      <c r="F129" s="39">
-        <v>6</v>
-      </c>
-      <c r="G129" s="95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H129" s="76">
-        <v>1300</v>
-      </c>
-      <c r="I129" s="61">
-        <v>1600</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A130" s="34">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B130" s="47" t="s">
-        <v>90</v>
+        <v>350</v>
       </c>
       <c r="C130" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D130" s="44" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E130" s="44">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F130" s="39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G130" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H130" s="76">
-        <v>1550</v>
+        <v>1250</v>
       </c>
       <c r="I130" s="61">
-        <v>2000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A131" s="34">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B131" s="47" t="s">
-        <v>351</v>
+        <v>83</v>
       </c>
       <c r="C131" s="43" t="s">
         <v>23</v>
@@ -30533,28 +30735,28 @@
         <v>4</v>
       </c>
       <c r="E131" s="44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F131" s="39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G131" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H131" s="76">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I131" s="61">
-        <v>2100</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A132" s="34" t="s">
-        <v>304</v>
+      <c r="A132" s="34">
+        <v>123</v>
       </c>
       <c r="B132" s="47" t="s">
-        <v>305</v>
+        <v>85</v>
       </c>
       <c r="C132" s="43" t="s">
         <v>23</v>
@@ -30573,108 +30775,108 @@
         <v>0</v>
       </c>
       <c r="H132" s="76">
-        <v>1150</v>
+        <v>1700</v>
       </c>
       <c r="I132" s="61">
-        <v>2000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A133" s="34" t="s">
-        <v>307</v>
-      </c>
-      <c r="B133" s="47">
-        <v>907</v>
+      <c r="A133" s="34">
+        <v>124</v>
+      </c>
+      <c r="B133" s="47" t="s">
+        <v>588</v>
       </c>
       <c r="C133" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D133" s="44" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E133" s="44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F133" s="39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G133" s="95">
-        <f t="shared" ref="G133:G196" si="2">(F133-E133)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H133" s="76">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="I133" s="61">
-        <v>2300</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A134" s="34">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C134" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D134" s="44" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E134" s="44">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F134" s="39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G134" s="95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H134" s="76">
-        <v>1100</v>
+        <v>1550</v>
       </c>
       <c r="I134" s="61">
-        <v>2500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A135" s="34">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>97</v>
+        <v>351</v>
       </c>
       <c r="C135" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D135" s="44" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E135" s="44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F135" s="39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G135" s="95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H135" s="76">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="I135" s="61">
-        <v>4200</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A136" s="34">
-        <v>129</v>
+      <c r="A136" s="34" t="s">
+        <v>304</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>395</v>
+        <v>305</v>
       </c>
       <c r="C136" s="43" t="s">
         <v>23</v>
@@ -30683,25 +30885,28 @@
         <v>4</v>
       </c>
       <c r="E136" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F136" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G136" s="95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H136" s="76">
+        <v>1150</v>
+      </c>
+      <c r="I136" s="61">
         <v>2000</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A137" s="34">
-        <v>130</v>
-      </c>
-      <c r="B137" s="47" t="s">
-        <v>101</v>
+      <c r="A137" s="34" t="s">
+        <v>307</v>
+      </c>
+      <c r="B137" s="47">
+        <v>907</v>
       </c>
       <c r="C137" s="43" t="s">
         <v>23</v>
@@ -30710,107 +30915,121 @@
         <v>4</v>
       </c>
       <c r="E137" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F137" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G137" s="95">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G137:G209" si="2">(F137-E137)</f>
         <v>0</v>
       </c>
       <c r="H137" s="76">
-        <v>1250</v>
+        <v>1500</v>
+      </c>
+      <c r="I137" s="61">
+        <v>2300</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A138" s="34" t="s">
-        <v>433</v>
+      <c r="A138" s="34">
+        <v>127</v>
       </c>
       <c r="B138" s="47" t="s">
-        <v>520</v>
+        <v>93</v>
       </c>
       <c r="C138" s="43" t="s">
         <v>23</v>
       </c>
       <c r="D138" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E138" s="44"/>
+        <v>11</v>
+      </c>
+      <c r="E138" s="44">
+        <v>7</v>
+      </c>
+      <c r="F138" s="39">
+        <v>7</v>
+      </c>
       <c r="G138" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H138" s="76">
-        <v>1300</v>
+        <v>1100</v>
+      </c>
+      <c r="I138" s="61">
+        <v>2500</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A139" s="34">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B139" s="47" t="s">
-        <v>540</v>
+        <v>97</v>
       </c>
       <c r="C139" s="43" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D139" s="44" t="s">
         <v>11</v>
       </c>
       <c r="E139" s="44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F139" s="39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G139" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H139" s="76">
-        <v>1800</v>
+        <v>3300</v>
+      </c>
+      <c r="I139" s="61">
+        <v>3700</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A140" s="34">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B140" s="47" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C140" s="43" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D140" s="44" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E140" s="44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F140" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G140" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H140" s="76">
-        <v>1100</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A141" s="34">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B141" s="47" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C141" s="43" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D141" s="44" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E141" s="44">
         <v>2</v>
@@ -30823,177 +31042,169 @@
         <v>0</v>
       </c>
       <c r="H141" s="76">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A142" s="34" t="s">
+        <v>433</v>
+      </c>
+      <c r="B142" s="47" t="s">
+        <v>587</v>
+      </c>
+      <c r="C142" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D142" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="44">
+        <v>1</v>
+      </c>
+      <c r="F142" s="39">
+        <v>1</v>
+      </c>
+      <c r="G142" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A143" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="B143" s="47" t="s">
+        <v>583</v>
+      </c>
+      <c r="C143" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E143" s="44">
+        <v>1</v>
+      </c>
+      <c r="F143" s="39">
+        <v>1</v>
+      </c>
+      <c r="G143" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A144" s="34">
+        <v>131</v>
+      </c>
+      <c r="B144" s="47" t="s">
+        <v>539</v>
+      </c>
+      <c r="C144" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D144" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" s="44">
+        <v>3</v>
+      </c>
+      <c r="F144" s="39">
+        <v>3</v>
+      </c>
+      <c r="G144" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="76">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A145" s="34">
+        <v>132</v>
+      </c>
+      <c r="B145" s="47" t="s">
+        <v>396</v>
+      </c>
+      <c r="C145" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D145" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" s="44">
+        <v>2</v>
+      </c>
+      <c r="F145" s="39">
+        <v>2</v>
+      </c>
+      <c r="G145" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H145" s="76">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A146" s="34">
+        <v>133</v>
+      </c>
+      <c r="B146" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C146" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="D146" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" s="44">
+        <v>2</v>
+      </c>
+      <c r="F146" s="39">
+        <v>2</v>
+      </c>
+      <c r="G146" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H146" s="76">
         <v>1350</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A142" s="34">
+    <row r="147" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A147" s="34">
         <v>134</v>
       </c>
-      <c r="B142" s="47" t="s">
+      <c r="B147" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="C142" s="43" t="s">
+      <c r="C147" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="D142" s="44" t="s">
+      <c r="D147" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E142" s="44">
+      <c r="E147" s="44">
         <v>3</v>
       </c>
-      <c r="F142" s="39">
+      <c r="F147" s="39">
         <v>4</v>
       </c>
-      <c r="G142" s="96">
+      <c r="G147" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H142" s="76">
+      <c r="H147" s="76">
         <v>1450</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A143" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="B143" s="47" t="s">
-        <v>406</v>
-      </c>
-      <c r="C143" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D143" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E143" s="44">
-        <v>1</v>
-      </c>
-      <c r="F143" s="39">
-        <v>1</v>
-      </c>
-      <c r="G143" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H143" s="76">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A144" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="B144" s="47" t="s">
-        <v>407</v>
-      </c>
-      <c r="C144" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D144" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E144" s="44">
-        <v>1</v>
-      </c>
-      <c r="F144" s="39">
-        <v>1</v>
-      </c>
-      <c r="G144" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H144" s="76">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A145" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="B145" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="C145" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D145" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E145" s="44">
-        <v>1</v>
-      </c>
-      <c r="F145" s="39">
-        <v>1</v>
-      </c>
-      <c r="G145" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H145" s="76">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A146" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="B146" s="47" t="s">
-        <v>434</v>
-      </c>
-      <c r="C146" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D146" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E146" s="44">
-        <v>2</v>
-      </c>
-      <c r="F146" s="39">
-        <v>2</v>
-      </c>
-      <c r="G146" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H146" s="76" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A147" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="B147" s="47" t="s">
-        <v>428</v>
-      </c>
-      <c r="C147" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="D147" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E147" s="44">
-        <v>1</v>
-      </c>
-      <c r="F147" s="39">
-        <v>1</v>
-      </c>
-      <c r="G147" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H147" s="76">
-        <v>1800</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A148" s="34" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B148" s="47" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>1</v>
@@ -31012,15 +31223,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="76">
-        <v>1850</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A149" s="34" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="B149" s="47" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C149" s="43" t="s">
         <v>1</v>
@@ -31044,10 +31255,10 @@
     </row>
     <row r="150" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A150" s="34" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="B150" s="47" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
       <c r="C150" s="43" t="s">
         <v>1</v>
@@ -31066,15 +31277,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="76">
-        <v>1800</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A151" s="34" t="s">
-        <v>427</v>
+        <v>405</v>
       </c>
       <c r="B151" s="47" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C151" s="43" t="s">
         <v>1</v>
@@ -31083,198 +31294,198 @@
         <v>11</v>
       </c>
       <c r="E151" s="44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F151" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G151" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H151" s="76">
-        <v>2000</v>
+      <c r="H151" s="76" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A152" s="34"/>
-      <c r="B152" s="47"/>
-      <c r="C152" s="43"/>
-      <c r="D152" s="44"/>
-      <c r="E152" s="44"/>
+      <c r="A152" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="B152" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="C152" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" s="44">
+        <v>1</v>
+      </c>
+      <c r="F152" s="39">
+        <v>1</v>
+      </c>
       <c r="G152" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="H152" s="76">
+        <v>1800</v>
+      </c>
     </row>
     <row r="153" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A153" s="34">
-        <v>135</v>
+      <c r="A153" s="34" t="s">
+        <v>410</v>
       </c>
       <c r="B153" s="47" t="s">
-        <v>306</v>
+        <v>423</v>
       </c>
       <c r="C153" s="43" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D153" s="44" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E153" s="44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F153" s="39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G153" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H153" s="76">
-        <v>1350</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A154" s="34">
-        <v>136</v>
+      <c r="A154" s="34" t="s">
+        <v>425</v>
       </c>
       <c r="B154" s="47" t="s">
-        <v>114</v>
+        <v>422</v>
       </c>
       <c r="C154" s="43" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D154" s="44" t="s">
         <v>11</v>
       </c>
       <c r="E154" s="44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F154" s="39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G154" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H154" s="76">
-        <v>1400</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A155" s="34">
-        <v>137</v>
+      <c r="A155" s="34" t="s">
+        <v>426</v>
       </c>
       <c r="B155" s="47" t="s">
-        <v>116</v>
+        <v>435</v>
       </c>
       <c r="C155" s="43" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D155" s="44" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E155" s="44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F155" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G155" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H155" s="76">
-        <v>1250</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A156" s="34">
-        <v>138</v>
+      <c r="A156" s="34" t="s">
+        <v>427</v>
       </c>
       <c r="B156" s="47" t="s">
-        <v>352</v>
+        <v>436</v>
       </c>
       <c r="C156" s="43" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D156" s="44" t="s">
         <v>11</v>
       </c>
       <c r="E156" s="44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F156" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G156" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H156" s="76">
-        <v>1050</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A157" s="34">
-        <v>139</v>
-      </c>
-      <c r="B157" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="C157" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D157" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="44">
-        <v>2</v>
-      </c>
-      <c r="F157" s="39">
-        <v>2</v>
-      </c>
+      <c r="A157" s="34"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="43"/>
+      <c r="D157" s="44"/>
+      <c r="E157" s="44"/>
       <c r="G157" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H157" s="76">
-        <v>1400</v>
-      </c>
     </row>
     <row r="158" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A158" s="34">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B158" s="47" t="s">
-        <v>122</v>
+        <v>306</v>
       </c>
       <c r="C158" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D158" s="44" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E158" s="44">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F158" s="39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G158" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H158" s="76">
-        <v>1100</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A159" s="34">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B159" s="47" t="s">
-        <v>353</v>
+        <v>114</v>
       </c>
       <c r="C159" s="43" t="s">
         <v>63</v>
@@ -31283,2832 +31494,2780 @@
         <v>11</v>
       </c>
       <c r="E159" s="44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F159" s="39">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G159" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H159" s="76">
-        <v>1050</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A160" s="34">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B160" s="47" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C160" s="43" t="s">
         <v>63</v>
       </c>
       <c r="D160" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="44">
+        <v>2</v>
+      </c>
+      <c r="F160" s="39">
+        <v>2</v>
+      </c>
+      <c r="G160" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H160" s="76">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A161" s="34">
+        <v>138</v>
+      </c>
+      <c r="B161" s="47" t="s">
+        <v>352</v>
+      </c>
+      <c r="C161" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E160" s="44">
-        <v>2</v>
-      </c>
-      <c r="F160" s="39">
+      <c r="E161" s="44">
+        <v>4</v>
+      </c>
+      <c r="F161" s="39">
+        <v>4</v>
+      </c>
+      <c r="G161" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H161" s="76">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A162" s="34">
+        <v>139</v>
+      </c>
+      <c r="B162" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="C162" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="44">
+        <v>2</v>
+      </c>
+      <c r="F162" s="39">
+        <v>2</v>
+      </c>
+      <c r="G162" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H162" s="76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A163" s="34">
+        <v>140</v>
+      </c>
+      <c r="B163" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C163" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" s="44">
+        <v>2</v>
+      </c>
+      <c r="F163" s="39">
+        <v>2</v>
+      </c>
+      <c r="G163" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H163" s="76">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A164" s="34">
+        <v>141</v>
+      </c>
+      <c r="B164" s="47" t="s">
+        <v>353</v>
+      </c>
+      <c r="C164" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E164" s="44">
+        <v>1</v>
+      </c>
+      <c r="F164" s="39">
         <v>3</v>
       </c>
-      <c r="G160" s="97">
+      <c r="G164" s="96">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H164" s="76">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A165" s="34">
+        <v>142</v>
+      </c>
+      <c r="B165" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C165" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E165" s="44">
+        <v>3</v>
+      </c>
+      <c r="F165" s="39">
+        <v>3</v>
+      </c>
+      <c r="G165" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H165" s="76">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A166" s="34">
+        <v>143</v>
+      </c>
+      <c r="B166" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="C166" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E166" s="44">
+        <v>0</v>
+      </c>
+      <c r="F166" s="39">
+        <v>0</v>
+      </c>
+      <c r="G166" s="102">
+        <f>(F166-E166)</f>
+        <v>0</v>
+      </c>
+      <c r="H166" s="76">
+        <v>1550</v>
+      </c>
+      <c r="I166" s="61">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A167" s="34">
+        <v>144</v>
+      </c>
+      <c r="B167" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C167" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="44">
+        <v>2</v>
+      </c>
+      <c r="F167" s="39">
+        <v>2</v>
+      </c>
+      <c r="G167" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H167" s="76">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A168" s="34">
+        <v>145</v>
+      </c>
+      <c r="B168" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E168" s="44">
+        <v>2</v>
+      </c>
+      <c r="F168" s="39">
+        <v>2</v>
+      </c>
+      <c r="G168" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H168" s="76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A169" s="34">
+        <v>146</v>
+      </c>
+      <c r="B169" s="47" t="s">
+        <v>311</v>
+      </c>
+      <c r="C169" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" s="44">
+        <v>7</v>
+      </c>
+      <c r="F169" s="39">
+        <v>7</v>
+      </c>
+      <c r="G169" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H169" s="76">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A170" s="34">
+        <v>147</v>
+      </c>
+      <c r="B170" s="47" t="s">
+        <v>354</v>
+      </c>
+      <c r="C170" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E170" s="44">
+        <v>5</v>
+      </c>
+      <c r="F170" s="39">
+        <v>6</v>
+      </c>
+      <c r="G170" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H160" s="76">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="34">
-        <v>143</v>
-      </c>
-      <c r="B161" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C161" s="43" t="s">
+      <c r="H170" s="76">
+        <v>1050</v>
+      </c>
+      <c r="L170" s="100"/>
+    </row>
+    <row r="171" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A171" s="34">
+        <v>148</v>
+      </c>
+      <c r="B171" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C171" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="D161" s="44" t="s">
+      <c r="D171" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" s="44">
+        <v>3</v>
+      </c>
+      <c r="F171" s="39">
+        <v>3</v>
+      </c>
+      <c r="G171" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H171" s="76">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A172" s="34">
+        <v>149</v>
+      </c>
+      <c r="B172" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="C172" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E161" s="44">
+      <c r="E172" s="44">
+        <v>2</v>
+      </c>
+      <c r="F172" s="39">
+        <v>2</v>
+      </c>
+      <c r="G172" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H172" s="76">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A173" s="34">
+        <v>150</v>
+      </c>
+      <c r="B173" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C173" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" s="44">
+        <v>5</v>
+      </c>
+      <c r="F173" s="39">
+        <v>5</v>
+      </c>
+      <c r="G173" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H173" s="76">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A174" s="34">
+        <v>151</v>
+      </c>
+      <c r="B174" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="C174" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E174" s="44">
+        <v>3</v>
+      </c>
+      <c r="F174" s="39">
+        <v>3</v>
+      </c>
+      <c r="G174" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H174" s="76">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A175" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="B175" s="47" t="s">
+        <v>586</v>
+      </c>
+      <c r="C175" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" s="44">
+        <v>1</v>
+      </c>
+      <c r="F175" s="39">
+        <v>1</v>
+      </c>
+      <c r="G175" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A176" s="34">
+        <v>152</v>
+      </c>
+      <c r="B176" s="47" t="s">
+        <v>355</v>
+      </c>
+      <c r="C176" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E176" s="44">
+        <v>2</v>
+      </c>
+      <c r="F176" s="39">
+        <v>2</v>
+      </c>
+      <c r="G176" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H176" s="76">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A177" s="34">
+        <v>153</v>
+      </c>
+      <c r="B177" s="47" t="s">
+        <v>356</v>
+      </c>
+      <c r="C177" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E177" s="44">
+        <v>2</v>
+      </c>
+      <c r="F177" s="39">
+        <v>2</v>
+      </c>
+      <c r="G177" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H177" s="76">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A178" s="34">
+        <v>154</v>
+      </c>
+      <c r="B178" s="47" t="s">
+        <v>357</v>
+      </c>
+      <c r="C178" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" s="44">
+        <v>3</v>
+      </c>
+      <c r="F178" s="39">
+        <v>3</v>
+      </c>
+      <c r="G178" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H178" s="76">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A179" s="34" t="s">
+        <v>579</v>
+      </c>
+      <c r="B179" s="47" t="s">
+        <v>578</v>
+      </c>
+      <c r="C179" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E179" s="44">
+        <v>1</v>
+      </c>
+      <c r="F179" s="39">
+        <v>1</v>
+      </c>
+      <c r="G179" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A180" s="34" t="s">
+        <v>592</v>
+      </c>
+      <c r="B180" s="47" t="s">
+        <v>591</v>
+      </c>
+      <c r="C180" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E180" s="44">
+        <v>1</v>
+      </c>
+      <c r="F180" s="39">
+        <v>1</v>
+      </c>
+      <c r="G180" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A181" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="B181" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="C181" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="44">
+        <v>1</v>
+      </c>
+      <c r="F181" s="39">
+        <v>1</v>
+      </c>
+      <c r="G181" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A182" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="B182" s="47" t="s">
+        <v>597</v>
+      </c>
+      <c r="C182" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E182" s="44">
+        <v>1</v>
+      </c>
+      <c r="F182" s="39">
+        <v>1</v>
+      </c>
+      <c r="G182" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A183" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="B183" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="C183" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" s="44">
+        <v>1</v>
+      </c>
+      <c r="F183" s="39">
+        <v>1</v>
+      </c>
+      <c r="G183" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A184" s="34" t="s">
+        <v>596</v>
+      </c>
+      <c r="B184" s="47" t="s">
+        <v>602</v>
+      </c>
+      <c r="C184" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E184" s="44">
+        <v>1</v>
+      </c>
+      <c r="F184" s="39">
+        <v>1</v>
+      </c>
+      <c r="G184" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A185" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="B185" s="47" t="s">
+        <v>598</v>
+      </c>
+      <c r="C185" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E185" s="44">
+        <v>1</v>
+      </c>
+      <c r="F185" s="39">
+        <v>1</v>
+      </c>
+      <c r="G185" s="95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A186" s="34">
+        <v>155</v>
+      </c>
+      <c r="B186" s="47" t="s">
+        <v>323</v>
+      </c>
+      <c r="C186" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="D186" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E186" s="44">
+        <v>1</v>
+      </c>
+      <c r="F186" s="39">
+        <v>1</v>
+      </c>
+      <c r="G186" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H186" s="76">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A187" s="34">
+        <v>156</v>
+      </c>
+      <c r="B187" s="47" t="s">
+        <v>584</v>
+      </c>
+      <c r="C187" s="43" t="s">
+        <v>584</v>
+      </c>
+      <c r="D187" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E187" s="44">
+        <v>1</v>
+      </c>
+      <c r="F187" s="39">
+        <v>1</v>
+      </c>
+      <c r="G187" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="34">
+        <v>157</v>
+      </c>
+      <c r="B188" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C188" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D188" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" s="44">
+        <v>2</v>
+      </c>
+      <c r="F188" s="39">
+        <v>2</v>
+      </c>
+      <c r="G188" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H188" s="76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A189" s="34">
+        <v>158</v>
+      </c>
+      <c r="B189" s="48" t="s">
+        <v>164</v>
+      </c>
+      <c r="C189" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D189" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E189" s="44">
+        <v>3</v>
+      </c>
+      <c r="F189" s="39">
+        <v>3</v>
+      </c>
+      <c r="G189" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H189" s="76">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A190" s="34">
+        <v>159</v>
+      </c>
+      <c r="B190" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C190" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D190" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E190" s="44">
+        <v>1</v>
+      </c>
+      <c r="F190" s="39">
+        <v>1</v>
+      </c>
+      <c r="G190" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H190" s="76">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A191" s="34">
+        <v>160</v>
+      </c>
+      <c r="B191" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="C191" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D191" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E191" s="44">
+        <v>2</v>
+      </c>
+      <c r="F191" s="39">
+        <v>2</v>
+      </c>
+      <c r="G191" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H191" s="76">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A192" s="34">
+        <v>161</v>
+      </c>
+      <c r="B192" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C192" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D192" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E192" s="44">
+        <v>2</v>
+      </c>
+      <c r="F192" s="39">
+        <v>2</v>
+      </c>
+      <c r="G192" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H192" s="76">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A193" s="34">
+        <v>162</v>
+      </c>
+      <c r="B193" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="C193" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D193" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E193" s="44">
+        <v>2</v>
+      </c>
+      <c r="F193" s="39">
+        <v>2</v>
+      </c>
+      <c r="G193" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H193" s="76">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A194" s="34">
+        <v>163</v>
+      </c>
+      <c r="B194" s="47" t="s">
+        <v>345</v>
+      </c>
+      <c r="C194" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D194" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E194" s="44">
+        <v>1</v>
+      </c>
+      <c r="F194" s="39">
+        <v>1</v>
+      </c>
+      <c r="G194" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H194" s="76">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A195" s="34">
+        <v>164</v>
+      </c>
+      <c r="B195" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C195" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E195" s="44">
+        <v>3</v>
+      </c>
+      <c r="F195" s="39">
+        <v>3</v>
+      </c>
+      <c r="G195" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H195" s="76">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A196" s="34">
+        <v>165</v>
+      </c>
+      <c r="B196" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="C196" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D196" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E196" s="44">
+        <v>3</v>
+      </c>
+      <c r="F196" s="39">
         <v>4</v>
       </c>
-      <c r="F161" s="39">
-        <v>6</v>
-      </c>
-      <c r="G161" s="96">
-        <f>(F161-E161)</f>
-        <v>2</v>
-      </c>
-      <c r="H161" s="76">
-        <v>1550</v>
-      </c>
-      <c r="I161" s="61">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="34">
-        <v>144</v>
-      </c>
-      <c r="B162" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="C162" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D162" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E162" s="44">
-        <v>2</v>
-      </c>
-      <c r="F162" s="39">
-        <v>2</v>
-      </c>
-      <c r="G162" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H162" s="76">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="34">
-        <v>145</v>
-      </c>
-      <c r="B163" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C163" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D163" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E163" s="44">
-        <v>2</v>
-      </c>
-      <c r="F163" s="39">
-        <v>2</v>
-      </c>
-      <c r="G163" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H163" s="76">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A164" s="34">
-        <v>146</v>
-      </c>
-      <c r="B164" s="47" t="s">
-        <v>311</v>
-      </c>
-      <c r="C164" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D164" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E164" s="44">
-        <v>7</v>
-      </c>
-      <c r="F164" s="39">
-        <v>7</v>
-      </c>
-      <c r="G164" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H164" s="76">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A165" s="34">
-        <v>147</v>
-      </c>
-      <c r="B165" s="47" t="s">
-        <v>354</v>
-      </c>
-      <c r="C165" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D165" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E165" s="44">
-        <v>5</v>
-      </c>
-      <c r="F165" s="39">
-        <v>6</v>
-      </c>
-      <c r="G165" s="96">
+      <c r="G196" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H165" s="76">
-        <v>1050</v>
-      </c>
-      <c r="L165" s="101"/>
-    </row>
-    <row r="166" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A166" s="34">
-        <v>148</v>
-      </c>
-      <c r="B166" s="47" t="s">
-        <v>142</v>
-      </c>
-      <c r="C166" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D166" s="44" t="s">
+      <c r="H196" s="76">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A197" s="34">
+        <v>166</v>
+      </c>
+      <c r="B197" s="48" t="s">
+        <v>424</v>
+      </c>
+      <c r="C197" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D197" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E166" s="44">
+      <c r="E197" s="44">
+        <v>2</v>
+      </c>
+      <c r="F197" s="39">
+        <v>2</v>
+      </c>
+      <c r="G197" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A198" s="34">
+        <v>167</v>
+      </c>
+      <c r="B198" s="48" t="s">
+        <v>346</v>
+      </c>
+      <c r="C198" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D198" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E198" s="44">
+        <v>2</v>
+      </c>
+      <c r="F198" s="39">
+        <v>2</v>
+      </c>
+      <c r="G198" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H198" s="76">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A199" s="34">
+        <v>168</v>
+      </c>
+      <c r="B199" s="47" t="s">
+        <v>302</v>
+      </c>
+      <c r="C199" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="D199" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" s="44">
+        <v>2</v>
+      </c>
+      <c r="F199" s="39">
+        <v>2</v>
+      </c>
+      <c r="G199" s="95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H199" s="76">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A200" s="34">
+        <v>169</v>
+      </c>
+      <c r="B200" s="47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C200" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D200" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" s="44">
         <v>3</v>
       </c>
-      <c r="F166" s="39">
+      <c r="F200" s="39">
         <v>3</v>
       </c>
-      <c r="G166" s="95">
+      <c r="G200" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H166" s="76">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A167" s="34">
-        <v>149</v>
-      </c>
-      <c r="B167" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C167" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D167" s="44" t="s">
+      <c r="H200" s="76">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A201" s="34">
+        <v>170</v>
+      </c>
+      <c r="B201" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C201" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D201" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="E167" s="44">
-        <v>2</v>
-      </c>
-      <c r="F167" s="39">
-        <v>2</v>
-      </c>
-      <c r="G167" s="95">
+      <c r="E201" s="44">
+        <v>3</v>
+      </c>
+      <c r="F201" s="39">
+        <v>3</v>
+      </c>
+      <c r="G201" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H167" s="76">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A168" s="34">
-        <v>150</v>
-      </c>
-      <c r="B168" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C168" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D168" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E168" s="44">
-        <v>5</v>
-      </c>
-      <c r="F168" s="39">
-        <v>5</v>
-      </c>
-      <c r="G168" s="95">
+      <c r="H201" s="76">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A202" s="34">
+        <v>171</v>
+      </c>
+      <c r="B202" s="47" t="s">
+        <v>541</v>
+      </c>
+      <c r="C202" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D202" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E202" s="44">
+        <v>2</v>
+      </c>
+      <c r="F202" s="39">
+        <v>2</v>
+      </c>
+      <c r="G202" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H168" s="76">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A169" s="34">
-        <v>151</v>
-      </c>
-      <c r="B169" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="C169" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D169" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E169" s="44">
-        <v>3</v>
-      </c>
-      <c r="F169" s="39">
-        <v>3</v>
-      </c>
-      <c r="G169" s="95">
+      <c r="H202" s="76">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A203" s="34">
+        <v>172</v>
+      </c>
+      <c r="B203" s="47" t="s">
+        <v>542</v>
+      </c>
+      <c r="C203" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D203" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E203" s="44">
+        <v>2</v>
+      </c>
+      <c r="F203" s="39">
+        <v>2</v>
+      </c>
+      <c r="G203" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H169" s="76">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A170" s="34">
-        <v>152</v>
-      </c>
-      <c r="B170" s="47" t="s">
-        <v>355</v>
-      </c>
-      <c r="C170" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D170" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E170" s="44">
-        <v>2</v>
-      </c>
-      <c r="F170" s="39">
-        <v>2</v>
-      </c>
-      <c r="G170" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H170" s="76">
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A171" s="34">
-        <v>153</v>
-      </c>
-      <c r="B171" s="47" t="s">
-        <v>356</v>
-      </c>
-      <c r="C171" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D171" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E171" s="44">
-        <v>2</v>
-      </c>
-      <c r="F171" s="39">
-        <v>2</v>
-      </c>
-      <c r="G171" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H171" s="76">
-        <v>2250</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A172" s="34">
-        <v>154</v>
-      </c>
-      <c r="B172" s="47" t="s">
-        <v>357</v>
-      </c>
-      <c r="C172" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D172" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E172" s="44">
-        <v>3</v>
-      </c>
-      <c r="F172" s="39">
-        <v>3</v>
-      </c>
-      <c r="G172" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H172" s="76">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A173" s="34">
-        <v>155</v>
-      </c>
-      <c r="B173" s="47" t="s">
-        <v>323</v>
-      </c>
-      <c r="C173" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="D173" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E173" s="44">
-        <v>1</v>
-      </c>
-      <c r="F173" s="39">
-        <v>1</v>
-      </c>
-      <c r="G173" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H173" s="76">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="49">
-        <v>156</v>
-      </c>
-      <c r="B174" s="47"/>
-      <c r="C174" s="43"/>
-      <c r="D174" s="44"/>
-      <c r="E174" s="44"/>
-      <c r="G174" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A175" s="34">
-        <v>157</v>
-      </c>
-      <c r="B175" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C175" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D175" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E175" s="44">
-        <v>2</v>
-      </c>
-      <c r="F175" s="39">
-        <v>2</v>
-      </c>
-      <c r="G175" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H175" s="76">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A176" s="34">
-        <v>158</v>
-      </c>
-      <c r="B176" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="C176" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D176" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E176" s="44">
-        <v>3</v>
-      </c>
-      <c r="F176" s="39">
-        <v>3</v>
-      </c>
-      <c r="G176" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H176" s="76">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A177" s="34">
-        <v>159</v>
-      </c>
-      <c r="B177" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="C177" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D177" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E177" s="44">
-        <v>1</v>
-      </c>
-      <c r="F177" s="39">
-        <v>1</v>
-      </c>
-      <c r="G177" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H177" s="76">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A178" s="34">
-        <v>160</v>
-      </c>
-      <c r="B178" s="48" t="s">
-        <v>168</v>
-      </c>
-      <c r="C178" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D178" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E178" s="44">
-        <v>2</v>
-      </c>
-      <c r="F178" s="39">
-        <v>2</v>
-      </c>
-      <c r="G178" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H178" s="76">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="34">
-        <v>161</v>
-      </c>
-      <c r="B179" s="48" t="s">
-        <v>170</v>
-      </c>
-      <c r="C179" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D179" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E179" s="44">
-        <v>2</v>
-      </c>
-      <c r="F179" s="39">
-        <v>2</v>
-      </c>
-      <c r="G179" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H179" s="76">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="34">
-        <v>162</v>
-      </c>
-      <c r="B180" s="47" t="s">
-        <v>344</v>
-      </c>
-      <c r="C180" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D180" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E180" s="44">
-        <v>2</v>
-      </c>
-      <c r="F180" s="39">
-        <v>2</v>
-      </c>
-      <c r="G180" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H180" s="76">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A181" s="34">
-        <v>163</v>
-      </c>
-      <c r="B181" s="47" t="s">
-        <v>345</v>
-      </c>
-      <c r="C181" s="43" t="s">
-        <v>6</v>
-      </c>
-      <c r="D181" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E181" s="44">
-        <v>1</v>
-      </c>
-      <c r="F181" s="39">
-        <v>1</v>
-      </c>
-      <c r="G181" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H181" s="76">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A182" s="34">
-        <v>164</v>
-      </c>
-      <c r="B182" s="48" t="s">
-        <v>175</v>
-      </c>
-      <c r="C182" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D182" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E182" s="44">
-        <v>3</v>
-      </c>
-      <c r="F182" s="39">
-        <v>3</v>
-      </c>
-      <c r="G182" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H182" s="76">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A183" s="34">
-        <v>165</v>
-      </c>
-      <c r="B183" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="C183" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D183" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E183" s="44">
-        <v>3</v>
-      </c>
-      <c r="F183" s="39">
-        <v>4</v>
-      </c>
-      <c r="G183" s="96">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H183" s="76">
-        <v>1550</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A184" s="34">
-        <v>166</v>
-      </c>
-      <c r="B184" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="C184" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D184" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E184" s="44">
-        <v>2</v>
-      </c>
-      <c r="F184" s="39">
-        <v>2</v>
-      </c>
-      <c r="G184" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A185" s="34">
-        <v>167</v>
-      </c>
-      <c r="B185" s="48" t="s">
-        <v>346</v>
-      </c>
-      <c r="C185" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D185" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E185" s="44">
-        <v>2</v>
-      </c>
-      <c r="F185" s="39">
-        <v>2</v>
-      </c>
-      <c r="G185" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H185" s="76">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A186" s="34">
-        <v>168</v>
-      </c>
-      <c r="B186" s="47" t="s">
-        <v>302</v>
-      </c>
-      <c r="C186" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="D186" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E186" s="44">
-        <v>2</v>
-      </c>
-      <c r="F186" s="39">
-        <v>2</v>
-      </c>
-      <c r="G186" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H186" s="76">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="34">
-        <v>169</v>
-      </c>
-      <c r="B187" s="47" t="s">
-        <v>315</v>
-      </c>
-      <c r="C187" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D187" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="E187" s="44">
-        <v>3</v>
-      </c>
-      <c r="F187" s="39">
-        <v>3</v>
-      </c>
-      <c r="G187" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H187" s="76">
+      <c r="H203" s="76">
         <v>2150</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A188" s="34">
-        <v>170</v>
-      </c>
-      <c r="B188" s="47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C188" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D188" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E188" s="44">
-        <v>3</v>
-      </c>
-      <c r="F188" s="39">
-        <v>3</v>
-      </c>
-      <c r="G188" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H188" s="76">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A189" s="34">
-        <v>171</v>
-      </c>
-      <c r="B189" s="47" t="s">
-        <v>542</v>
-      </c>
-      <c r="C189" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D189" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E189" s="44">
-        <v>2</v>
-      </c>
-      <c r="F189" s="39">
-        <v>2</v>
-      </c>
-      <c r="G189" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H189" s="76">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A190" s="34">
-        <v>172</v>
-      </c>
-      <c r="B190" s="47" t="s">
-        <v>543</v>
-      </c>
-      <c r="C190" s="43" t="s">
-        <v>184</v>
-      </c>
-      <c r="D190" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E190" s="44">
-        <v>2</v>
-      </c>
-      <c r="F190" s="39">
-        <v>2</v>
-      </c>
-      <c r="G190" s="95">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H190" s="76">
-        <v>2150</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A191" s="34">
+    <row r="204" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A204" s="34">
         <v>173</v>
       </c>
-      <c r="B191" s="47" t="s">
+      <c r="B204" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C191" s="43" t="s">
+      <c r="C204" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D191" s="44" t="s">
+      <c r="D204" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E191" s="44">
+      <c r="E204" s="44">
         <v>15</v>
       </c>
-      <c r="F191" s="39">
+      <c r="F204" s="39">
         <v>20</v>
       </c>
-      <c r="G191" s="96">
+      <c r="G204" s="96">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="H191" s="76">
+      <c r="H204" s="76">
         <v>115</v>
       </c>
-      <c r="I191" s="61">
+      <c r="I204" s="61">
         <v>200</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A192" s="49">
+    <row r="205" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A205" s="49">
         <v>174</v>
       </c>
-      <c r="B192" s="47"/>
-      <c r="C192" s="43"/>
-      <c r="D192" s="44"/>
-      <c r="E192" s="44"/>
-      <c r="G192" s="95">
+      <c r="B205" s="47"/>
+      <c r="C205" s="43"/>
+      <c r="D205" s="44"/>
+      <c r="E205" s="44"/>
+      <c r="G205" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A193" s="34">
+    <row r="206" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A206" s="34">
         <v>175</v>
       </c>
-      <c r="B193" s="47" t="s">
+      <c r="B206" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C193" s="43" t="s">
+      <c r="C206" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D193" s="44" t="s">
+      <c r="D206" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E193" s="44">
+      <c r="E206" s="44">
         <v>10</v>
       </c>
-      <c r="F193" s="39">
+      <c r="F206" s="39">
         <v>10</v>
       </c>
-      <c r="G193" s="95">
+      <c r="G206" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H193" s="76">
+      <c r="H206" s="76">
         <v>250</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A194" s="34">
+    <row r="207" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A207" s="34">
         <v>176</v>
       </c>
-      <c r="B194" s="47" t="s">
+      <c r="B207" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C194" s="43" t="s">
+      <c r="C207" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D194" s="44" t="s">
+      <c r="D207" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E194" s="44">
+      <c r="E207" s="44">
         <v>10</v>
       </c>
-      <c r="F194" s="39">
+      <c r="F207" s="39">
         <v>12</v>
       </c>
-      <c r="G194" s="96">
+      <c r="G207" s="96">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H194" s="76">
+      <c r="H207" s="76">
         <v>195</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A195" s="34">
+    <row r="208" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A208" s="34">
         <v>177</v>
       </c>
-      <c r="B195" s="47" t="s">
+      <c r="B208" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="C195" s="43" t="s">
+      <c r="C208" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D195" s="44" t="s">
+      <c r="D208" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E195" s="44">
+      <c r="E208" s="44">
         <v>13</v>
       </c>
-      <c r="F195" s="39">
+      <c r="F208" s="39">
         <v>13</v>
       </c>
-      <c r="G195" s="95">
+      <c r="G208" s="95">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H195" s="76">
+      <c r="H208" s="76">
         <v>185</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A196" s="34">
+    <row r="209" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A209" s="34">
         <v>178</v>
       </c>
-      <c r="B196" s="47" t="s">
+      <c r="B209" s="47" t="s">
         <v>312</v>
       </c>
-      <c r="C196" s="43" t="s">
+      <c r="C209" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D196" s="44" t="s">
+      <c r="D209" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E196" s="44">
+      <c r="E209" s="44">
         <v>8</v>
       </c>
-      <c r="F196" s="39">
+      <c r="F209" s="39">
         <v>10</v>
       </c>
-      <c r="G196" s="96">
+      <c r="G209" s="96">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="H196" s="76">
+      <c r="H209" s="76">
         <v>185</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A197" s="34">
+    <row r="210" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A210" s="34">
         <v>179</v>
       </c>
-      <c r="B197" s="47" t="s">
+      <c r="B210" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="C197" s="43" t="s">
+      <c r="C210" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D197" s="44" t="s">
+      <c r="D210" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E197" s="44">
+      <c r="E210" s="44">
         <v>10</v>
       </c>
-      <c r="F197" s="39">
+      <c r="F210" s="39">
         <v>10</v>
       </c>
-      <c r="G197" s="95">
-        <f t="shared" ref="G197:G253" si="3">(F197-E197)</f>
-        <v>0</v>
-      </c>
-      <c r="H197" s="76">
+      <c r="G210" s="95">
+        <f t="shared" ref="G210:G268" si="3">(F210-E210)</f>
+        <v>0</v>
+      </c>
+      <c r="H210" s="76">
         <v>170</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A198" s="34">
+    <row r="211" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A211" s="34">
         <v>180</v>
       </c>
-      <c r="B198" s="47" t="s">
+      <c r="B211" s="47" t="s">
         <v>51</v>
       </c>
-      <c r="C198" s="43" t="s">
+      <c r="C211" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="D198" s="44" t="s">
+      <c r="D211" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="E198" s="44">
+      <c r="E211" s="44">
         <v>9</v>
       </c>
-      <c r="F198" s="39">
+      <c r="F211" s="39">
         <v>10</v>
       </c>
-      <c r="G198" s="96">
+      <c r="G211" s="96">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H198" s="76">
+      <c r="H211" s="76">
         <v>130</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A199" s="34" t="s">
+    <row r="212" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A212" s="34" t="s">
         <v>321</v>
       </c>
-      <c r="B199" s="47" t="s">
+      <c r="B212" s="47" t="s">
         <v>131</v>
       </c>
-      <c r="C199" s="43" t="s">
+      <c r="C212" s="43" t="s">
         <v>55</v>
-      </c>
-      <c r="D199" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E199" s="44">
-        <v>1</v>
-      </c>
-      <c r="F199" s="39">
-        <v>1</v>
-      </c>
-      <c r="G199" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H199" s="76">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A200" s="34">
-        <v>181</v>
-      </c>
-      <c r="B200" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="C200" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D200" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E200" s="44">
-        <v>8</v>
-      </c>
-      <c r="F200" s="39">
-        <v>10</v>
-      </c>
-      <c r="G200" s="96">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="H200" s="76">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A201" s="34">
-        <v>182</v>
-      </c>
-      <c r="B201" s="47" t="s">
-        <v>348</v>
-      </c>
-      <c r="C201" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D201" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E201" s="44">
-        <v>10</v>
-      </c>
-      <c r="F201" s="39">
-        <v>10</v>
-      </c>
-      <c r="G201" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H201" s="76">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A202" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="B202" s="47" t="s">
-        <v>320</v>
-      </c>
-      <c r="C202" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D202" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E202" s="44">
-        <v>1</v>
-      </c>
-      <c r="F202" s="39">
-        <v>1</v>
-      </c>
-      <c r="G202" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H202" s="76">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A203" s="34" t="s">
-        <v>319</v>
-      </c>
-      <c r="B203" s="47" t="s">
-        <v>318</v>
-      </c>
-      <c r="C203" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D203" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E203" s="44">
-        <v>1</v>
-      </c>
-      <c r="F203" s="39">
-        <v>1</v>
-      </c>
-      <c r="G203" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H203" s="76">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A204" s="34">
-        <v>183</v>
-      </c>
-      <c r="B204" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="C204" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D204" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E204" s="44">
-        <v>2</v>
-      </c>
-      <c r="F204" s="39">
-        <v>2</v>
-      </c>
-      <c r="G204" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H204" s="76">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A205" s="34">
-        <v>184</v>
-      </c>
-      <c r="B205" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="C205" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D205" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E205" s="44">
-        <v>2</v>
-      </c>
-      <c r="F205" s="39">
-        <v>2</v>
-      </c>
-      <c r="G205" s="98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H205" s="76">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A206" s="34">
-        <v>185</v>
-      </c>
-      <c r="B206" s="47" t="s">
-        <v>313</v>
-      </c>
-      <c r="C206" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D206" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E206" s="44">
-        <v>6</v>
-      </c>
-      <c r="F206" s="39">
-        <v>6</v>
-      </c>
-      <c r="G206" s="98">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H206" s="76">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A207" s="34">
-        <v>186</v>
-      </c>
-      <c r="B207" s="47" t="s">
-        <v>220</v>
-      </c>
-      <c r="C207" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D207" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E207" s="44">
-        <v>1</v>
-      </c>
-      <c r="F207" s="39">
-        <v>1</v>
-      </c>
-      <c r="G207" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H207" s="76">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A208" s="34">
-        <v>187</v>
-      </c>
-      <c r="B208" s="47" t="s">
-        <v>314</v>
-      </c>
-      <c r="C208" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="D208" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E208" s="44">
-        <v>26</v>
-      </c>
-      <c r="F208" s="39">
-        <v>26</v>
-      </c>
-      <c r="G208" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H208" s="76">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A209" s="34">
-        <v>188</v>
-      </c>
-      <c r="B209" s="47" t="s">
-        <v>455</v>
-      </c>
-      <c r="C209" s="43" t="s">
-        <v>456</v>
-      </c>
-      <c r="D209" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E209" s="44">
-        <v>20</v>
-      </c>
-      <c r="F209" s="39">
-        <v>20</v>
-      </c>
-      <c r="G209" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H209" s="76">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A210" s="34">
-        <v>189</v>
-      </c>
-      <c r="B210" s="47" t="s">
-        <v>457</v>
-      </c>
-      <c r="C210" s="43" t="s">
-        <v>458</v>
-      </c>
-      <c r="D210" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E210" s="44">
-        <v>1</v>
-      </c>
-      <c r="F210" s="39">
-        <v>1</v>
-      </c>
-      <c r="G210" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A211" s="34">
-        <v>190</v>
-      </c>
-      <c r="B211" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="C211" s="43" t="s">
-        <v>456</v>
-      </c>
-      <c r="D211" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="E211" s="44">
-        <v>3</v>
-      </c>
-      <c r="F211" s="39">
-        <v>3</v>
-      </c>
-      <c r="G211" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A212" s="34">
-        <v>191</v>
-      </c>
-      <c r="B212" s="47" t="s">
-        <v>460</v>
-      </c>
-      <c r="C212" s="43" t="s">
-        <v>456</v>
       </c>
       <c r="D212" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E212" s="44">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F212" s="39">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G212" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H212" s="76">
+        <v>700</v>
+      </c>
     </row>
     <row r="213" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A213" s="34">
-        <v>192</v>
-      </c>
-      <c r="B213" s="36" t="s">
-        <v>461</v>
+        <v>181</v>
+      </c>
+      <c r="B213" s="47" t="s">
+        <v>347</v>
       </c>
       <c r="C213" s="43" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="D213" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E213" s="44">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F213" s="39">
-        <v>3</v>
-      </c>
-      <c r="G213" s="95">
+        <v>10</v>
+      </c>
+      <c r="G213" s="96">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H213" s="76">
+        <v>153</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A214" s="68">
-        <v>193</v>
-      </c>
-      <c r="B214" s="36" t="s">
-        <v>462</v>
+      <c r="A214" s="34">
+        <v>182</v>
+      </c>
+      <c r="B214" s="47" t="s">
+        <v>348</v>
       </c>
       <c r="C214" s="43" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="D214" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E214" s="44">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F214" s="39">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G214" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H214" s="76">
+        <v>158</v>
+      </c>
     </row>
     <row r="215" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A215" s="68">
-        <v>194</v>
-      </c>
-      <c r="B215" s="36" t="s">
-        <v>463</v>
+      <c r="A215" s="34" t="s">
+        <v>317</v>
+      </c>
+      <c r="B215" s="47" t="s">
+        <v>320</v>
       </c>
       <c r="C215" s="43" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="D215" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E215" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F215" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G215" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H215" s="76">
+        <v>700</v>
+      </c>
     </row>
     <row r="216" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A216" s="68">
-        <v>195</v>
-      </c>
-      <c r="B216" s="36" t="s">
-        <v>464</v>
+      <c r="A216" s="34" t="s">
+        <v>319</v>
+      </c>
+      <c r="B216" s="47" t="s">
+        <v>318</v>
       </c>
       <c r="C216" s="43" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="D216" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E216" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F216" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G216" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H216" s="76">
+        <v>700</v>
+      </c>
     </row>
     <row r="217" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A217" s="68">
-        <v>196</v>
-      </c>
-      <c r="B217" s="36" t="s">
-        <v>468</v>
+      <c r="A217" s="34">
+        <v>183</v>
+      </c>
+      <c r="B217" s="47" t="s">
+        <v>242</v>
       </c>
       <c r="C217" s="43" t="s">
-        <v>456</v>
+        <v>63</v>
       </c>
       <c r="D217" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E217" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F217" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G217" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H217" s="76">
+        <v>480</v>
+      </c>
     </row>
     <row r="218" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A218" s="68">
-        <v>197</v>
-      </c>
-      <c r="B218" s="36" t="s">
-        <v>465</v>
+      <c r="A218" s="34">
+        <v>184</v>
+      </c>
+      <c r="B218" s="47" t="s">
+        <v>66</v>
       </c>
       <c r="C218" s="43" t="s">
-        <v>456</v>
+        <v>63</v>
       </c>
       <c r="D218" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E218" s="44">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F218" s="39">
-        <v>4</v>
-      </c>
-      <c r="G218" s="95">
+        <v>2</v>
+      </c>
+      <c r="G218" s="97">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H218" s="76">
+        <v>1000</v>
+      </c>
     </row>
     <row r="219" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A219" s="68">
-        <v>198</v>
-      </c>
-      <c r="B219" s="36" t="s">
-        <v>471</v>
+      <c r="A219" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="B219" s="47" t="s">
+        <v>603</v>
       </c>
       <c r="C219" s="43" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="D219" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E219" s="44">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F219" s="39">
-        <v>5</v>
-      </c>
-      <c r="G219" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="G219" s="97">
+        <v>0</v>
+      </c>
+      <c r="H219" s="76">
+        <v>260</v>
       </c>
     </row>
     <row r="220" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A220" s="68">
-        <v>199</v>
-      </c>
-      <c r="B220" s="36" t="s">
-        <v>470</v>
+      <c r="A220" s="34">
+        <v>185</v>
+      </c>
+      <c r="B220" s="47" t="s">
+        <v>590</v>
       </c>
       <c r="C220" s="43" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="D220" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E220" s="44">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F220" s="39">
-        <v>3</v>
-      </c>
-      <c r="G220" s="95">
+        <v>6</v>
+      </c>
+      <c r="G220" s="97">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H220" s="76">
+        <v>235</v>
+      </c>
     </row>
     <row r="221" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A221" s="68" t="s">
-        <v>491</v>
-      </c>
-      <c r="B221" s="36" t="s">
-        <v>492</v>
+      <c r="A221" s="34">
+        <v>186</v>
+      </c>
+      <c r="B221" s="47" t="s">
+        <v>220</v>
       </c>
       <c r="C221" s="43" t="s">
-        <v>456</v>
+        <v>63</v>
       </c>
       <c r="D221" s="44" t="s">
         <v>29</v>
       </c>
       <c r="E221" s="44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F221" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G221" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="H221" s="76">
+        <v>700</v>
+      </c>
     </row>
     <row r="222" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A222" s="68">
-        <v>200</v>
-      </c>
-      <c r="B222" s="36" t="s">
-        <v>448</v>
+      <c r="A222" s="34">
+        <v>187</v>
+      </c>
+      <c r="B222" s="47" t="s">
+        <v>314</v>
       </c>
       <c r="C222" s="43" t="s">
-        <v>446</v>
+        <v>322</v>
       </c>
       <c r="D222" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E222" s="44">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="F222" s="39">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="G222" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H222" s="76" t="s">
-        <v>450</v>
+      <c r="H222" s="76">
+        <v>210</v>
       </c>
     </row>
     <row r="223" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A223" s="68">
-        <v>201</v>
-      </c>
-      <c r="B223" s="36" t="s">
-        <v>452</v>
+      <c r="A223" s="34">
+        <v>188</v>
+      </c>
+      <c r="B223" s="47" t="s">
+        <v>455</v>
       </c>
       <c r="C223" s="43" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D223" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E223" s="44">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F223" s="39">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G223" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H223" s="76" t="s">
-        <v>550</v>
+      <c r="H223" s="76">
+        <v>210</v>
       </c>
     </row>
     <row r="224" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A224" s="68">
-        <v>202</v>
-      </c>
-      <c r="B224" s="36" t="s">
-        <v>449</v>
+      <c r="A224" s="34">
+        <v>189</v>
+      </c>
+      <c r="B224" s="47" t="s">
+        <v>457</v>
       </c>
       <c r="C224" s="43" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="D224" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E224" s="44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F224" s="39">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G224" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H224" s="76" t="s">
-        <v>551</v>
-      </c>
     </row>
     <row r="225" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A225" s="68">
-        <v>203</v>
-      </c>
-      <c r="B225" s="36" t="s">
-        <v>477</v>
+      <c r="A225" s="34">
+        <v>190</v>
+      </c>
+      <c r="B225" s="47" t="s">
+        <v>459</v>
       </c>
       <c r="C225" s="43" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="D225" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E225" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F225" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G225" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H225" s="76">
-        <v>180</v>
-      </c>
     </row>
     <row r="226" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A226" s="68">
-        <v>204</v>
-      </c>
-      <c r="B226" s="36" t="s">
-        <v>475</v>
+      <c r="A226" s="34">
+        <v>191</v>
+      </c>
+      <c r="B226" s="47" t="s">
+        <v>460</v>
       </c>
       <c r="C226" s="43" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="D226" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E226" s="44">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="F226" s="39">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="G226" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H226" s="76">
-        <v>180</v>
-      </c>
     </row>
     <row r="227" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A227" s="68">
-        <v>205</v>
+      <c r="A227" s="34">
+        <v>192</v>
       </c>
       <c r="B227" s="36" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C227" s="43" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="D227" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E227" s="44">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F227" s="39">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G227" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H227" s="76">
-        <v>1050</v>
-      </c>
     </row>
     <row r="228" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A228" s="68">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B228" s="36" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="C228" s="43" t="s">
-        <v>417</v>
+        <v>456</v>
       </c>
       <c r="D228" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E228" s="44">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F228" s="39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G228" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H228" s="76">
-        <v>180</v>
-      </c>
     </row>
     <row r="229" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A229" s="68">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B229" s="36" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C229" s="43" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D229" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E229" s="44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F229" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G229" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H229" s="76">
-        <v>200</v>
-      </c>
     </row>
     <row r="230" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A230" s="68">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B230" s="36" t="s">
-        <v>552</v>
+        <v>464</v>
       </c>
       <c r="C230" s="43" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="D230" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E230" s="44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F230" s="39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G230" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H230" s="76">
-        <v>250</v>
-      </c>
     </row>
     <row r="231" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A231" s="68">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B231" s="36" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="C231" s="43" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="D231" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E231" s="44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F231" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G231" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H231" s="76">
-        <v>250</v>
-      </c>
     </row>
     <row r="232" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A232" s="68">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B232" s="36" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="C232" s="43" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="D232" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E232" s="44">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F232" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G232" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H232" s="76">
-        <v>250</v>
-      </c>
     </row>
     <row r="233" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A233" s="68">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B233" s="36" t="s">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C233" s="43" t="s">
-        <v>482</v>
+        <v>456</v>
       </c>
       <c r="D233" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E233" s="44">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F233" s="39">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G233" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H233" s="76">
-        <v>300</v>
-      </c>
     </row>
     <row r="234" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A234" s="68">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="B234" s="36" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="C234" s="43" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="D234" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E234" s="44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F234" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G234" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H234" s="76">
-        <v>250</v>
-      </c>
     </row>
     <row r="235" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A235" s="68">
-        <v>213</v>
+      <c r="A235" s="68" t="s">
+        <v>491</v>
       </c>
       <c r="B235" s="36" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C235" s="43" t="s">
-        <v>420</v>
+        <v>456</v>
       </c>
       <c r="D235" s="44" t="s">
-        <v>447</v>
+        <v>29</v>
       </c>
       <c r="E235" s="44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F235" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G235" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H235" s="76">
-        <v>230</v>
-      </c>
     </row>
     <row r="236" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A236" s="68">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B236" s="36" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="C236" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="D236" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E236" s="44">
         <v>6</v>
       </c>
-      <c r="D236" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="E236" s="44">
-        <v>4</v>
-      </c>
       <c r="F236" s="39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G236" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H236" s="76" t="s">
-        <v>544</v>
+        <v>450</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A237" s="68">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B237" s="36" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="C237" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="D237" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E237" s="44">
         <v>6</v>
       </c>
-      <c r="D237" s="44" t="s">
-        <v>412</v>
-      </c>
-      <c r="E237" s="44">
-        <v>4</v>
-      </c>
-      <c r="F237" s="44">
-        <v>4</v>
+      <c r="F237" s="39">
+        <v>6</v>
       </c>
       <c r="G237" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H237" s="76" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="238" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A238" s="68">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B238" s="36" t="s">
-        <v>416</v>
+        <v>449</v>
       </c>
       <c r="C238" s="43" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="D238" s="44" t="s">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="E238" s="44">
-        <v>4</v>
-      </c>
-      <c r="F238" s="44">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="F238" s="39">
+        <v>6</v>
       </c>
       <c r="G238" s="95">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H238" s="76" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="239" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A239" s="68">
+        <v>203</v>
+      </c>
+      <c r="B239" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="C239" s="43" t="s">
+        <v>446</v>
+      </c>
+      <c r="D239" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E239" s="44">
+        <v>1</v>
+      </c>
+      <c r="F239" s="39">
+        <v>1</v>
+      </c>
+      <c r="G239" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H239" s="76">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A240" s="68">
+        <v>204</v>
+      </c>
+      <c r="B240" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="C240" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="D240" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E240" s="44">
+        <v>10</v>
+      </c>
+      <c r="F240" s="39">
+        <v>10</v>
+      </c>
+      <c r="G240" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H240" s="76">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A241" s="68">
+        <v>205</v>
+      </c>
+      <c r="B241" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="C241" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="D241" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E241" s="44">
+        <v>10</v>
+      </c>
+      <c r="F241" s="39">
+        <v>10</v>
+      </c>
+      <c r="G241" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H241" s="76">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A242" s="68">
+        <v>206</v>
+      </c>
+      <c r="B242" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="C242" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="D242" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E242" s="44">
+        <v>7</v>
+      </c>
+      <c r="F242" s="39">
+        <v>7</v>
+      </c>
+      <c r="G242" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H242" s="76">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A243" s="68">
+        <v>207</v>
+      </c>
+      <c r="B243" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="C243" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="D243" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E243" s="44">
+        <v>2</v>
+      </c>
+      <c r="F243" s="39">
+        <v>2</v>
+      </c>
+      <c r="G243" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H243" s="76">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A244" s="68">
+        <v>208</v>
+      </c>
+      <c r="B244" s="36" t="s">
+        <v>551</v>
+      </c>
+      <c r="C244" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="D244" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E244" s="44">
+        <v>4</v>
+      </c>
+      <c r="F244" s="39">
+        <v>4</v>
+      </c>
+      <c r="G244" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H244" s="76">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A245" s="68" t="s">
+        <v>604</v>
+      </c>
+      <c r="B245" s="36" t="s">
+        <v>605</v>
+      </c>
+      <c r="C245" s="43" t="s">
+        <v>479</v>
+      </c>
+      <c r="D245" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E245" s="44">
+        <v>1</v>
+      </c>
+      <c r="F245" s="39">
+        <v>1</v>
+      </c>
+      <c r="G245" s="95">
+        <f t="shared" ref="G245" si="4">(F245-E245)</f>
+        <v>0</v>
+      </c>
+      <c r="H245" s="76">
+        <v>300</v>
+      </c>
+      <c r="I245" s="61">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A246" s="68">
+        <v>209</v>
+      </c>
+      <c r="B246" s="36" t="s">
+        <v>606</v>
+      </c>
+      <c r="C246" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="D246" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E246" s="44">
+        <v>2</v>
+      </c>
+      <c r="F246" s="39">
+        <v>2</v>
+      </c>
+      <c r="G246" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H246" s="76">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A247" s="68">
+        <v>210</v>
+      </c>
+      <c r="B247" s="36" t="s">
+        <v>484</v>
+      </c>
+      <c r="C247" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="D247" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E247" s="44">
+        <v>2</v>
+      </c>
+      <c r="F247" s="39">
+        <v>2</v>
+      </c>
+      <c r="G247" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H247" s="76">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A248" s="68">
+        <v>211</v>
+      </c>
+      <c r="B248" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="C248" s="43" t="s">
+        <v>482</v>
+      </c>
+      <c r="D248" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E248" s="44">
+        <v>6</v>
+      </c>
+      <c r="F248" s="39">
+        <v>6</v>
+      </c>
+      <c r="G248" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H248" s="76">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A249" s="68">
+        <v>212</v>
+      </c>
+      <c r="B249" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="C249" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D249" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E249" s="44">
+        <v>1</v>
+      </c>
+      <c r="F249" s="39">
+        <v>1</v>
+      </c>
+      <c r="G249" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H249" s="76">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A250" s="68">
+        <v>213</v>
+      </c>
+      <c r="B250" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="C250" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D250" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="E250" s="44">
+        <v>5</v>
+      </c>
+      <c r="F250" s="39">
+        <v>5</v>
+      </c>
+      <c r="G250" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H250" s="76">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A251" s="68">
+        <v>214</v>
+      </c>
+      <c r="B251" s="36" t="s">
+        <v>411</v>
+      </c>
+      <c r="C251" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D251" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="E251" s="44">
+        <v>4</v>
+      </c>
+      <c r="F251" s="39">
+        <v>4</v>
+      </c>
+      <c r="G251" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H251" s="76" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A252" s="68">
+        <v>215</v>
+      </c>
+      <c r="B252" s="36" t="s">
+        <v>414</v>
+      </c>
+      <c r="C252" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="E252" s="44">
+        <v>4</v>
+      </c>
+      <c r="F252" s="44">
+        <v>4</v>
+      </c>
+      <c r="G252" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H252" s="76" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A253" s="68">
+        <v>216</v>
+      </c>
+      <c r="B253" s="36" t="s">
+        <v>416</v>
+      </c>
+      <c r="C253" s="43" t="s">
+        <v>417</v>
+      </c>
+      <c r="D253" s="44" t="s">
+        <v>412</v>
+      </c>
+      <c r="E253" s="44">
+        <v>4</v>
+      </c>
+      <c r="F253" s="44">
+        <v>4</v>
+      </c>
+      <c r="G253" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H253" s="76" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A254" s="68">
         <v>217</v>
       </c>
-      <c r="B239" s="36" t="s">
+      <c r="B254" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="C239" s="43" t="s">
+      <c r="C254" s="43" t="s">
         <v>420</v>
       </c>
-      <c r="D239" s="44" t="s">
+      <c r="D254" s="44" t="s">
         <v>412</v>
       </c>
-      <c r="E239" s="44">
+      <c r="E254" s="44">
         <v>5</v>
       </c>
-      <c r="F239" s="44">
+      <c r="F254" s="44">
         <v>6</v>
       </c>
-      <c r="G239" s="102">
+      <c r="G254" s="101">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="H239" s="76" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A240" s="68">
+      <c r="H254" s="76" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A255" s="68">
         <v>218</v>
-      </c>
-      <c r="B240" s="36"/>
-      <c r="C240" s="43"/>
-      <c r="D240" s="44"/>
-      <c r="E240" s="44"/>
-      <c r="G240" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A241" s="68">
-        <v>219</v>
-      </c>
-      <c r="B241" s="36"/>
-      <c r="C241" s="43"/>
-      <c r="D241" s="44"/>
-      <c r="E241" s="44"/>
-      <c r="G241" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A242" s="68">
-        <v>220</v>
-      </c>
-      <c r="B242" s="36" t="s">
-        <v>487</v>
-      </c>
-      <c r="C242" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D242" s="44" t="s">
-        <v>488</v>
-      </c>
-      <c r="E242" s="44"/>
-      <c r="G242" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A243" s="68">
-        <v>221</v>
-      </c>
-      <c r="B243" s="36" t="s">
-        <v>489</v>
-      </c>
-      <c r="C243" s="43" t="s">
-        <v>456</v>
-      </c>
-      <c r="D243" s="44" t="s">
-        <v>490</v>
-      </c>
-      <c r="E243" s="44"/>
-      <c r="G243" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A244" s="68">
-        <v>222</v>
-      </c>
-      <c r="B244" s="36"/>
-      <c r="C244" s="43"/>
-      <c r="D244" s="44"/>
-      <c r="E244" s="44"/>
-      <c r="G244" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A245" s="68">
-        <v>223</v>
-      </c>
-      <c r="B245" s="36"/>
-      <c r="C245" s="43"/>
-      <c r="D245" s="44"/>
-      <c r="E245" s="44"/>
-      <c r="G245" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A246" s="68">
-        <v>224</v>
-      </c>
-      <c r="B246" s="36"/>
-      <c r="C246" s="43"/>
-      <c r="D246" s="44"/>
-      <c r="E246" s="44"/>
-      <c r="G246" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A247" s="68">
-        <v>225</v>
-      </c>
-      <c r="B247" s="36"/>
-      <c r="C247" s="43"/>
-      <c r="D247" s="44"/>
-      <c r="E247" s="44"/>
-      <c r="G247" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A248" s="68">
-        <v>226</v>
-      </c>
-      <c r="B248" s="36"/>
-      <c r="C248" s="43"/>
-      <c r="D248" s="44"/>
-      <c r="E248" s="44"/>
-      <c r="G248" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A249" s="68">
-        <v>227</v>
-      </c>
-      <c r="B249" s="36"/>
-      <c r="C249" s="43"/>
-      <c r="D249" s="44"/>
-      <c r="E249" s="44"/>
-      <c r="G249" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A250" s="68">
-        <v>228</v>
-      </c>
-      <c r="B250" s="36"/>
-      <c r="C250" s="43"/>
-      <c r="D250" s="44"/>
-      <c r="E250" s="44"/>
-      <c r="G250" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A251" s="68">
-        <v>229</v>
-      </c>
-      <c r="B251" s="36"/>
-      <c r="C251" s="43"/>
-      <c r="D251" s="44"/>
-      <c r="E251" s="44"/>
-      <c r="G251" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A252" s="68">
-        <v>230</v>
-      </c>
-      <c r="B252" s="36"/>
-      <c r="C252" s="43"/>
-      <c r="D252" s="44"/>
-      <c r="E252" s="44"/>
-      <c r="G252" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A253" s="68">
-        <v>231</v>
-      </c>
-      <c r="B253" s="36"/>
-      <c r="C253" s="43"/>
-      <c r="D253" s="44"/>
-      <c r="E253" s="44"/>
-      <c r="G253" s="95">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A254" s="68">
-        <v>232</v>
-      </c>
-      <c r="B254" s="36"/>
-      <c r="C254" s="43"/>
-      <c r="D254" s="44"/>
-      <c r="E254" s="44"/>
-    </row>
-    <row r="255" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A255" s="68">
-        <v>233</v>
       </c>
       <c r="B255" s="36"/>
       <c r="C255" s="43"/>
       <c r="D255" s="44"/>
       <c r="E255" s="44"/>
-    </row>
-    <row r="256" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="G255" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A256" s="68">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B256" s="36"/>
       <c r="C256" s="43"/>
       <c r="D256" s="44"/>
       <c r="E256" s="44"/>
-    </row>
-    <row r="257" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A257" s="82"/>
-      <c r="B257" s="80" t="s">
+      <c r="G256" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A257" s="68">
+        <v>220</v>
+      </c>
+      <c r="B257" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="C257" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D257" s="44" t="s">
+        <v>488</v>
+      </c>
+      <c r="E257" s="44"/>
+      <c r="G257" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A258" s="68">
+        <v>221</v>
+      </c>
+      <c r="B258" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="C258" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="D258" s="44" t="s">
+        <v>490</v>
+      </c>
+      <c r="E258" s="44"/>
+      <c r="G258" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A259" s="68">
+        <v>222</v>
+      </c>
+      <c r="B259" s="36"/>
+      <c r="C259" s="43"/>
+      <c r="D259" s="44"/>
+      <c r="E259" s="44"/>
+      <c r="G259" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A260" s="68">
+        <v>223</v>
+      </c>
+      <c r="B260" s="36"/>
+      <c r="C260" s="43"/>
+      <c r="D260" s="44"/>
+      <c r="E260" s="44"/>
+      <c r="G260" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A261" s="68">
+        <v>224</v>
+      </c>
+      <c r="B261" s="36"/>
+      <c r="C261" s="43"/>
+      <c r="D261" s="44"/>
+      <c r="E261" s="44"/>
+      <c r="G261" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A262" s="68">
+        <v>225</v>
+      </c>
+      <c r="B262" s="36"/>
+      <c r="C262" s="43"/>
+      <c r="D262" s="44"/>
+      <c r="E262" s="44"/>
+      <c r="G262" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A263" s="68">
+        <v>226</v>
+      </c>
+      <c r="B263" s="36"/>
+      <c r="C263" s="43"/>
+      <c r="D263" s="44"/>
+      <c r="E263" s="44"/>
+      <c r="G263" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A264" s="68">
+        <v>227</v>
+      </c>
+      <c r="B264" s="36"/>
+      <c r="C264" s="43"/>
+      <c r="D264" s="44"/>
+      <c r="E264" s="44"/>
+      <c r="G264" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A265" s="68">
+        <v>228</v>
+      </c>
+      <c r="B265" s="36"/>
+      <c r="C265" s="43"/>
+      <c r="D265" s="44"/>
+      <c r="E265" s="44"/>
+      <c r="G265" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A266" s="68">
+        <v>229</v>
+      </c>
+      <c r="B266" s="36"/>
+      <c r="C266" s="43"/>
+      <c r="D266" s="44"/>
+      <c r="E266" s="44"/>
+      <c r="G266" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A267" s="68">
+        <v>230</v>
+      </c>
+      <c r="B267" s="36"/>
+      <c r="C267" s="43"/>
+      <c r="D267" s="44"/>
+      <c r="E267" s="44"/>
+      <c r="G267" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A268" s="68">
+        <v>231</v>
+      </c>
+      <c r="B268" s="36"/>
+      <c r="C268" s="43"/>
+      <c r="D268" s="44"/>
+      <c r="E268" s="44"/>
+      <c r="G268" s="95">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A269" s="68">
+        <v>232</v>
+      </c>
+      <c r="B269" s="36"/>
+      <c r="C269" s="43"/>
+      <c r="D269" s="44"/>
+      <c r="E269" s="44"/>
+    </row>
+    <row r="270" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A270" s="68">
+        <v>233</v>
+      </c>
+      <c r="B270" s="36"/>
+      <c r="C270" s="43"/>
+      <c r="D270" s="44"/>
+      <c r="E270" s="44"/>
+    </row>
+    <row r="271" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A271" s="68">
+        <v>234</v>
+      </c>
+      <c r="B271" s="36"/>
+      <c r="C271" s="43"/>
+      <c r="D271" s="44"/>
+      <c r="E271" s="44"/>
+    </row>
+    <row r="272" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A272" s="82"/>
+      <c r="B272" s="80" t="s">
         <v>494</v>
       </c>
-      <c r="C257" s="80" t="s">
+      <c r="C272" s="80" t="s">
         <v>495</v>
       </c>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="H257" s="76">
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="H272" s="76">
         <v>20210</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="69" t="s">
+    <row r="273" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A273" s="69" t="s">
         <v>326</v>
       </c>
-      <c r="B258" s="70" t="s">
+      <c r="B273" s="70" t="s">
         <v>327</v>
       </c>
-      <c r="C258" s="70" t="s">
+      <c r="C273" s="70" t="s">
         <v>328</v>
       </c>
-      <c r="D258" s="70" t="s">
+      <c r="D273" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="E258" s="88" t="s">
+      <c r="E273" s="88" t="s">
         <v>330</v>
       </c>
-      <c r="F258" s="39" t="s">
+      <c r="F273" s="39" t="s">
         <v>331</v>
       </c>
-      <c r="G258" s="95" t="s">
-        <v>527</v>
-      </c>
-      <c r="H258" s="76" t="s">
-        <v>547</v>
-      </c>
-      <c r="I258" s="86" t="s">
+      <c r="G273" s="95" t="s">
+        <v>526</v>
+      </c>
+      <c r="H273" s="76" t="s">
+        <v>546</v>
+      </c>
+      <c r="I273" s="86" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A259" s="81">
+    <row r="274" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A274" s="81">
         <v>1</v>
       </c>
-      <c r="B259" s="91" t="s">
-        <v>522</v>
-      </c>
-      <c r="C259" s="61" t="s">
+      <c r="B274" s="91" t="s">
+        <v>521</v>
+      </c>
+      <c r="C274" s="61" t="s">
         <v>28</v>
-      </c>
-      <c r="D259" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E259" s="92">
-        <v>20</v>
-      </c>
-      <c r="F259" s="39">
-        <v>20</v>
-      </c>
-      <c r="G259" s="95">
-        <f>(F259-E259)</f>
-        <v>0</v>
-      </c>
-      <c r="H259" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I259" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A260" s="81">
-        <v>2</v>
-      </c>
-      <c r="B260" s="91" t="s">
-        <v>496</v>
-      </c>
-      <c r="C260" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D260" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E260" s="92">
-        <v>5</v>
-      </c>
-      <c r="F260" s="92">
-        <v>5</v>
-      </c>
-      <c r="G260" s="95">
-        <f t="shared" ref="G260:G289" si="4">(F260-E260)</f>
-        <v>0</v>
-      </c>
-      <c r="H260" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I260" s="39">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A261" s="81">
-        <v>3</v>
-      </c>
-      <c r="B261" s="91" t="s">
-        <v>497</v>
-      </c>
-      <c r="C261" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D261" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E261" s="92">
-        <v>5</v>
-      </c>
-      <c r="F261" s="92">
-        <v>5</v>
-      </c>
-      <c r="G261" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H261" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I261" s="39">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A262" s="81">
-        <v>4</v>
-      </c>
-      <c r="B262" s="91">
-        <v>1080</v>
-      </c>
-      <c r="C262" s="61"/>
-      <c r="D262" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E262" s="92">
-        <v>10</v>
-      </c>
-      <c r="F262" s="92">
-        <v>10</v>
-      </c>
-      <c r="G262" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H262" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I262" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A263" s="81">
-        <v>5</v>
-      </c>
-      <c r="B263" s="91" t="s">
-        <v>498</v>
-      </c>
-      <c r="C263" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="D263" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E263" s="92">
-        <v>10</v>
-      </c>
-      <c r="F263" s="92">
-        <v>10</v>
-      </c>
-      <c r="G263" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H263" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I263" s="39">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A264" s="81">
-        <v>6</v>
-      </c>
-      <c r="B264" s="91" t="s">
-        <v>499</v>
-      </c>
-      <c r="C264" s="61"/>
-      <c r="D264" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E264" s="92">
-        <v>20</v>
-      </c>
-      <c r="F264" s="92">
-        <v>20</v>
-      </c>
-      <c r="G264" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H264" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I264" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A265" s="81">
-        <v>7</v>
-      </c>
-      <c r="B265" s="91" t="s">
-        <v>500</v>
-      </c>
-      <c r="C265" s="61"/>
-      <c r="D265" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E265" s="92">
-        <v>10</v>
-      </c>
-      <c r="F265" s="92">
-        <v>10</v>
-      </c>
-      <c r="G265" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H265" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I265" s="39">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A266" s="81">
-        <v>8</v>
-      </c>
-      <c r="B266" s="91" t="s">
-        <v>501</v>
-      </c>
-      <c r="C266" s="61"/>
-      <c r="D266" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E266" s="92">
-        <v>50</v>
-      </c>
-      <c r="F266" s="92">
-        <v>50</v>
-      </c>
-      <c r="G266" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H266" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I266" s="39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A267" s="81">
-        <v>9</v>
-      </c>
-      <c r="B267" s="91" t="s">
-        <v>502</v>
-      </c>
-      <c r="C267" s="61"/>
-      <c r="D267" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E267" s="92">
-        <v>50</v>
-      </c>
-      <c r="F267" s="92">
-        <v>50</v>
-      </c>
-      <c r="G267" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H267" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I267" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A268" s="81">
-        <v>10</v>
-      </c>
-      <c r="B268" s="91" t="s">
-        <v>503</v>
-      </c>
-      <c r="C268" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="D268" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E268" s="92">
-        <v>10</v>
-      </c>
-      <c r="F268" s="92">
-        <v>10</v>
-      </c>
-      <c r="G268" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H268" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I268" s="39">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A269" s="81">
-        <v>11</v>
-      </c>
-      <c r="B269" s="91" t="s">
-        <v>504</v>
-      </c>
-      <c r="C269" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="D269" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E269" s="92">
-        <v>10</v>
-      </c>
-      <c r="F269" s="92">
-        <v>10</v>
-      </c>
-      <c r="G269" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H269" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I269" s="39">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A270" s="81">
-        <v>12</v>
-      </c>
-      <c r="B270" s="91" t="s">
-        <v>505</v>
-      </c>
-      <c r="C270" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="D270" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E270" s="92">
-        <v>20</v>
-      </c>
-      <c r="F270" s="92">
-        <v>20</v>
-      </c>
-      <c r="G270" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H270" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I270" s="39">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A271" s="81">
-        <v>13</v>
-      </c>
-      <c r="B271" s="91" t="s">
-        <v>506</v>
-      </c>
-      <c r="C271" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="D271" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E271" s="92">
-        <v>10</v>
-      </c>
-      <c r="F271" s="92">
-        <v>10</v>
-      </c>
-      <c r="G271" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H271" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I271" s="39">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A272" s="81">
-        <v>14</v>
-      </c>
-      <c r="B272" s="91" t="s">
-        <v>507</v>
-      </c>
-      <c r="C272" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="D272" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E272" s="92">
-        <v>10</v>
-      </c>
-      <c r="F272" s="92">
-        <v>10</v>
-      </c>
-      <c r="G272" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H272" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I272" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="273" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A273" s="81">
-        <v>15</v>
-      </c>
-      <c r="B273" s="91" t="s">
-        <v>508</v>
-      </c>
-      <c r="C273" s="61" t="s">
-        <v>417</v>
-      </c>
-      <c r="D273" s="61" t="s">
-        <v>519</v>
-      </c>
-      <c r="E273" s="92">
-        <v>30</v>
-      </c>
-      <c r="F273" s="92">
-        <v>30</v>
-      </c>
-      <c r="G273" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H273" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I273" s="39">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="274" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A274" s="81">
-        <v>16</v>
-      </c>
-      <c r="B274" s="91">
-        <v>9060</v>
-      </c>
-      <c r="C274" s="61" t="s">
-        <v>63</v>
       </c>
       <c r="D274" s="61" t="s">
         <v>519</v>
@@ -34116,26 +34275,26 @@
       <c r="E274" s="92">
         <v>20</v>
       </c>
-      <c r="F274" s="92">
+      <c r="F274" s="39">
         <v>20</v>
       </c>
       <c r="G274" s="95">
-        <f t="shared" si="4"/>
+        <f>(F274-E274)</f>
         <v>0</v>
       </c>
       <c r="H274" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I274" s="39">
         <v>20</v>
       </c>
     </row>
-    <row r="275" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A275" s="81">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B275" s="91" t="s">
-        <v>66</v>
+        <v>496</v>
       </c>
       <c r="C275" s="61" t="s">
         <v>63</v>
@@ -34144,28 +34303,28 @@
         <v>519</v>
       </c>
       <c r="E275" s="92">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F275" s="92">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G275" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G275:G304" si="5">(F275-E275)</f>
         <v>0</v>
       </c>
       <c r="H275" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I275" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="276" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A276" s="81">
-        <v>18</v>
-      </c>
-      <c r="B276" s="91">
-        <v>8262</v>
+        <v>3</v>
+      </c>
+      <c r="B276" s="91" t="s">
+        <v>497</v>
       </c>
       <c r="C276" s="61" t="s">
         <v>63</v>
@@ -34174,32 +34333,30 @@
         <v>519</v>
       </c>
       <c r="E276" s="92">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F276" s="92">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G276" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H276" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I276" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="277" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A277" s="81">
-        <v>19</v>
-      </c>
-      <c r="B277" s="91" t="s">
-        <v>99</v>
-      </c>
-      <c r="C277" s="61" t="s">
-        <v>417</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B277" s="91">
+        <v>1080</v>
+      </c>
+      <c r="C277" s="61"/>
       <c r="D277" s="61" t="s">
         <v>519</v>
       </c>
@@ -34210,251 +34367,227 @@
         <v>10</v>
       </c>
       <c r="G277" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H277" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I277" s="39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="278" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A278" s="81">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B278" s="91" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="C278" s="61" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="D278" s="61" t="s">
         <v>519</v>
       </c>
       <c r="E278" s="92">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F278" s="92">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G278" s="95">
-        <f t="shared" si="4"/>
-        <v>20</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="H278" s="76" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="I278" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="279" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A279" s="81">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="B279" s="91" t="s">
-        <v>305</v>
-      </c>
-      <c r="C279" s="61" t="s">
-        <v>417</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="C279" s="61"/>
       <c r="D279" s="61" t="s">
         <v>519</v>
       </c>
       <c r="E279" s="92">
+        <v>20</v>
+      </c>
+      <c r="F279" s="92">
+        <v>20</v>
+      </c>
+      <c r="G279" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H279" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I279" s="39">
         <v>10</v>
       </c>
-      <c r="F279" s="92">
-        <v>10</v>
-      </c>
-      <c r="G279" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H279" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I279" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="280" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="280" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A280" s="81">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B280" s="91" t="s">
-        <v>509</v>
-      </c>
-      <c r="C280" s="61" t="s">
-        <v>63</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="C280" s="61"/>
       <c r="D280" s="61" t="s">
         <v>519</v>
       </c>
       <c r="E280" s="92">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F280" s="92">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G280" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H280" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I280" s="39">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="281" spans="1:18" s="85" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A281" s="81">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B281" s="91" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="C281" s="61"/>
       <c r="D281" s="61" t="s">
         <v>519</v>
       </c>
-      <c r="E281" s="93">
-        <v>20</v>
-      </c>
-      <c r="F281" s="93">
-        <v>20</v>
+      <c r="E281" s="92">
+        <v>50</v>
+      </c>
+      <c r="F281" s="92">
+        <v>50</v>
       </c>
       <c r="G281" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H281" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I281" s="39">
-        <v>10</v>
-      </c>
-      <c r="J281"/>
-      <c r="K281"/>
-      <c r="L281"/>
-      <c r="M281"/>
-      <c r="N281"/>
-      <c r="O281"/>
-      <c r="P281"/>
-      <c r="Q281"/>
-      <c r="R281"/>
-    </row>
-    <row r="282" spans="1:18" s="83" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A282" s="81">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B282" s="91" t="s">
-        <v>517</v>
-      </c>
-      <c r="C282" s="61" t="s">
-        <v>63</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="C282" s="61"/>
       <c r="D282" s="61" t="s">
         <v>519</v>
       </c>
       <c r="E282" s="92">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F282" s="92">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G282" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H282" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I282" s="39">
-        <v>15</v>
-      </c>
-      <c r="J282"/>
-      <c r="K282"/>
-      <c r="L282"/>
-      <c r="M282"/>
-      <c r="N282"/>
-      <c r="O282"/>
-      <c r="P282"/>
-      <c r="Q282"/>
-      <c r="R282"/>
-    </row>
-    <row r="283" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A283" s="81">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B283" s="91" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C283" s="61" t="s">
-        <v>63</v>
+        <v>417</v>
       </c>
       <c r="D283" s="61" t="s">
         <v>519</v>
       </c>
       <c r="E283" s="92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F283" s="92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G283" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H283" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I283" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A284" s="81">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="B284" s="91" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C284" s="61" t="s">
-        <v>63</v>
+        <v>417</v>
       </c>
       <c r="D284" s="61" t="s">
         <v>519</v>
       </c>
       <c r="E284" s="92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F284" s="92">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G284" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H284" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I284" s="39">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A285" s="81">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B285" s="91" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C285" s="61" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D285" s="61" t="s">
         <v>519</v>
@@ -34466,112 +34599,112 @@
         <v>20</v>
       </c>
       <c r="G285" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H285" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I285" s="39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="286" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A286" s="81">
-        <v>28</v>
-      </c>
-      <c r="B286" s="91">
-        <v>8600</v>
+        <v>13</v>
+      </c>
+      <c r="B286" s="91" t="s">
+        <v>506</v>
       </c>
       <c r="C286" s="61" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="D286" s="61" t="s">
         <v>519</v>
       </c>
       <c r="E286" s="92">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F286" s="92">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G286" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H286" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I286" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="287" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A287" s="81">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="B287" s="91" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="C287" s="61" t="s">
-        <v>63</v>
+        <v>417</v>
       </c>
       <c r="D287" s="61" t="s">
         <v>519</v>
       </c>
       <c r="E287" s="92">
+        <v>10</v>
+      </c>
+      <c r="F287" s="92">
+        <v>10</v>
+      </c>
+      <c r="G287" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H287" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I287" s="39">
         <v>20</v>
       </c>
-      <c r="F287" s="92">
-        <v>20</v>
-      </c>
-      <c r="G287" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H287" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I287" s="39">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="288" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="288" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A288" s="81">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B288" s="91" t="s">
-        <v>35</v>
+        <v>508</v>
       </c>
       <c r="C288" s="61" t="s">
-        <v>28</v>
+        <v>417</v>
       </c>
       <c r="D288" s="61" t="s">
         <v>519</v>
       </c>
       <c r="E288" s="92">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F288" s="92">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G288" s="95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H288" s="76" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I288" s="39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="289" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A289" s="81">
-        <v>31</v>
-      </c>
-      <c r="B289" s="91" t="s">
-        <v>515</v>
+        <v>16</v>
+      </c>
+      <c r="B289" s="91">
+        <v>9060</v>
       </c>
       <c r="C289" s="61" t="s">
         <v>63</v>
@@ -34580,289 +34713,808 @@
         <v>519</v>
       </c>
       <c r="E289" s="92">
+        <v>20</v>
+      </c>
+      <c r="F289" s="92">
+        <v>20</v>
+      </c>
+      <c r="G289" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H289" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I289" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A290" s="81">
+        <v>17</v>
+      </c>
+      <c r="B290" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="C290" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D290" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E290" s="92">
+        <v>20</v>
+      </c>
+      <c r="F290" s="92">
+        <v>20</v>
+      </c>
+      <c r="G290" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H290" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I290" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A291" s="81">
+        <v>18</v>
+      </c>
+      <c r="B291" s="91">
+        <v>8262</v>
+      </c>
+      <c r="C291" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D291" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E291" s="92">
+        <v>20</v>
+      </c>
+      <c r="F291" s="92">
+        <v>20</v>
+      </c>
+      <c r="G291" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H291" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I291" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A292" s="81">
+        <v>19</v>
+      </c>
+      <c r="B292" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="C292" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="D292" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E292" s="92">
+        <v>10</v>
+      </c>
+      <c r="F292" s="92">
+        <v>10</v>
+      </c>
+      <c r="G292" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H292" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I292" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A293" s="81">
+        <v>20</v>
+      </c>
+      <c r="B293" s="91" t="s">
+        <v>518</v>
+      </c>
+      <c r="C293" s="61" t="s">
+        <v>456</v>
+      </c>
+      <c r="D293" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E293" s="92">
+        <v>30</v>
+      </c>
+      <c r="F293" s="92">
+        <v>50</v>
+      </c>
+      <c r="G293" s="95">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="H293" s="76" t="s">
+        <v>547</v>
+      </c>
+      <c r="I293" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A294" s="81">
+        <v>21</v>
+      </c>
+      <c r="B294" s="91" t="s">
+        <v>305</v>
+      </c>
+      <c r="C294" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="D294" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E294" s="92">
+        <v>10</v>
+      </c>
+      <c r="F294" s="92">
+        <v>10</v>
+      </c>
+      <c r="G294" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H294" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I294" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A295" s="81">
+        <v>22</v>
+      </c>
+      <c r="B295" s="91" t="s">
+        <v>509</v>
+      </c>
+      <c r="C295" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D295" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E295" s="92">
         <v>5</v>
       </c>
-      <c r="F289" s="92">
+      <c r="F295" s="92">
         <v>5</v>
       </c>
-      <c r="G289" s="95">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H289" s="76" t="s">
-        <v>544</v>
-      </c>
-      <c r="I289" s="39">
+      <c r="G295" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H295" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I295" s="39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" s="85" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A296" s="81">
+        <v>23</v>
+      </c>
+      <c r="B296" s="91" t="s">
+        <v>510</v>
+      </c>
+      <c r="C296" s="61"/>
+      <c r="D296" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E296" s="93">
+        <v>20</v>
+      </c>
+      <c r="F296" s="93">
+        <v>20</v>
+      </c>
+      <c r="G296" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H296" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I296" s="39">
+        <v>10</v>
+      </c>
+      <c r="J296"/>
+      <c r="K296"/>
+      <c r="L296"/>
+      <c r="M296"/>
+      <c r="N296"/>
+      <c r="O296"/>
+      <c r="P296"/>
+      <c r="Q296"/>
+      <c r="R296"/>
+    </row>
+    <row r="297" spans="1:18" s="83" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A297" s="81">
+        <v>24</v>
+      </c>
+      <c r="B297" s="91" t="s">
+        <v>517</v>
+      </c>
+      <c r="C297" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D297" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E297" s="92">
+        <v>20</v>
+      </c>
+      <c r="F297" s="92">
+        <v>20</v>
+      </c>
+      <c r="G297" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H297" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I297" s="39">
+        <v>15</v>
+      </c>
+      <c r="J297"/>
+      <c r="K297"/>
+      <c r="L297"/>
+      <c r="M297"/>
+      <c r="N297"/>
+      <c r="O297"/>
+      <c r="P297"/>
+      <c r="Q297"/>
+      <c r="R297"/>
+    </row>
+    <row r="298" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A298" s="81">
+        <v>25</v>
+      </c>
+      <c r="B298" s="91" t="s">
+        <v>511</v>
+      </c>
+      <c r="C298" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D298" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E298" s="92">
+        <v>20</v>
+      </c>
+      <c r="F298" s="92">
+        <v>20</v>
+      </c>
+      <c r="G298" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H298" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I298" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A299" s="81">
+        <v>26</v>
+      </c>
+      <c r="B299" s="91" t="s">
+        <v>512</v>
+      </c>
+      <c r="C299" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D299" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E299" s="92">
+        <v>20</v>
+      </c>
+      <c r="F299" s="92">
+        <v>20</v>
+      </c>
+      <c r="G299" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H299" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I299" s="39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A300" s="81">
+        <v>27</v>
+      </c>
+      <c r="B300" s="91" t="s">
+        <v>513</v>
+      </c>
+      <c r="C300" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D300" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E300" s="92">
+        <v>20</v>
+      </c>
+      <c r="F300" s="92">
+        <v>20</v>
+      </c>
+      <c r="G300" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H300" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I300" s="39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A301" s="81">
+        <v>28</v>
+      </c>
+      <c r="B301" s="91">
+        <v>8600</v>
+      </c>
+      <c r="C301" s="61" t="s">
+        <v>456</v>
+      </c>
+      <c r="D301" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E301" s="92">
+        <v>50</v>
+      </c>
+      <c r="F301" s="92">
+        <v>50</v>
+      </c>
+      <c r="G301" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H301" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I301" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A302" s="81">
+        <v>29</v>
+      </c>
+      <c r="B302" s="91" t="s">
+        <v>514</v>
+      </c>
+      <c r="C302" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D302" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E302" s="92">
+        <v>20</v>
+      </c>
+      <c r="F302" s="92">
+        <v>20</v>
+      </c>
+      <c r="G302" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H302" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I302" s="39">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="303" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A303" s="81">
+        <v>30</v>
+      </c>
+      <c r="B303" s="91" t="s">
+        <v>35</v>
+      </c>
+      <c r="C303" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E303" s="92">
+        <v>20</v>
+      </c>
+      <c r="F303" s="92">
+        <v>20</v>
+      </c>
+      <c r="G303" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H303" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I303" s="39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A304" s="81">
+        <v>31</v>
+      </c>
+      <c r="B304" s="91" t="s">
+        <v>515</v>
+      </c>
+      <c r="C304" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D304" s="61" t="s">
+        <v>519</v>
+      </c>
+      <c r="E304" s="92">
+        <v>5</v>
+      </c>
+      <c r="F304" s="92">
+        <v>5</v>
+      </c>
+      <c r="G304" s="95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H304" s="76" t="s">
+        <v>543</v>
+      </c>
+      <c r="I304" s="39">
         <v>130</v>
       </c>
     </row>
-    <row r="290" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A290" s="81">
-        <v>32</v>
-      </c>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
-      <c r="F290"/>
-      <c r="G290"/>
-    </row>
-    <row r="291" spans="1:26" s="85" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A291" s="81">
-        <v>33</v>
-      </c>
-      <c r="B291"/>
-      <c r="C291"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
-      <c r="F291"/>
-      <c r="G291"/>
-      <c r="H291" s="76"/>
-      <c r="I291" s="61"/>
-      <c r="J291"/>
-      <c r="K291"/>
-      <c r="L291"/>
-      <c r="M291"/>
-      <c r="N291"/>
-      <c r="O291"/>
-      <c r="P291"/>
-      <c r="Q291"/>
-      <c r="R291"/>
-      <c r="S291"/>
-      <c r="T291"/>
-      <c r="U291"/>
-      <c r="V291"/>
-      <c r="W291"/>
-      <c r="X291"/>
-      <c r="Y291"/>
-      <c r="Z291"/>
-    </row>
-    <row r="292" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="81">
-        <v>34</v>
-      </c>
-      <c r="B292" s="84"/>
-      <c r="D292" s="3"/>
-      <c r="E292"/>
-      <c r="F292" s="3"/>
-      <c r="G292"/>
-    </row>
-    <row r="293" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
-      <c r="G293"/>
-    </row>
-    <row r="294" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="D294" s="3"/>
-      <c r="E294"/>
-      <c r="F294"/>
-      <c r="G294"/>
-    </row>
-    <row r="295" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E295"/>
-      <c r="F295"/>
-      <c r="G295"/>
-    </row>
-    <row r="296" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E296"/>
-      <c r="F296"/>
-      <c r="G296"/>
-    </row>
-    <row r="297" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E297"/>
-      <c r="F297"/>
-      <c r="G297"/>
-    </row>
-    <row r="298" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E298"/>
-      <c r="F298"/>
-      <c r="G298"/>
-    </row>
-    <row r="299" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E299"/>
-      <c r="F299"/>
-      <c r="G299"/>
-    </row>
-    <row r="300" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E300"/>
-      <c r="F300"/>
-      <c r="G300"/>
-    </row>
-    <row r="301" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E301"/>
-      <c r="F301"/>
-      <c r="G301"/>
-    </row>
-    <row r="302" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E302"/>
-      <c r="F302"/>
-      <c r="G302"/>
-    </row>
-    <row r="303" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E303"/>
-      <c r="F303"/>
-      <c r="G303"/>
-    </row>
-    <row r="304" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="E304"/>
-      <c r="F304"/>
-      <c r="G304"/>
-    </row>
-    <row r="305" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E305"/>
-      <c r="F305"/>
-      <c r="G305"/>
-    </row>
-    <row r="306" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E306"/>
-      <c r="F306"/>
-      <c r="G306"/>
-    </row>
-    <row r="307" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E307"/>
-      <c r="F307"/>
-      <c r="G307"/>
-    </row>
-    <row r="308" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E308"/>
-      <c r="F308"/>
-      <c r="G308"/>
-    </row>
-    <row r="309" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E309"/>
-      <c r="F309"/>
-      <c r="G309"/>
-    </row>
-    <row r="310" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E310"/>
-      <c r="F310"/>
-      <c r="G310"/>
-    </row>
-    <row r="311" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E311"/>
-      <c r="F311"/>
-      <c r="G311"/>
-    </row>
-    <row r="312" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E312"/>
-      <c r="F312"/>
-      <c r="G312"/>
-    </row>
-    <row r="313" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E313"/>
-      <c r="F313"/>
-      <c r="G313"/>
-    </row>
-    <row r="314" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E314"/>
-      <c r="F314"/>
-      <c r="G314"/>
-    </row>
-    <row r="315" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E315"/>
-      <c r="F315"/>
-      <c r="G315"/>
-    </row>
-    <row r="316" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E316"/>
-      <c r="F316"/>
-      <c r="G316"/>
-    </row>
-    <row r="317" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E317"/>
-      <c r="F317"/>
-      <c r="G317"/>
-    </row>
-    <row r="318" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E318"/>
-      <c r="F318"/>
-      <c r="G318"/>
-    </row>
-    <row r="319" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E319"/>
-      <c r="F319"/>
-      <c r="G319"/>
-    </row>
-    <row r="320" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E320"/>
-      <c r="F320"/>
-      <c r="G320"/>
-    </row>
-    <row r="321" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E321"/>
-      <c r="F321"/>
-      <c r="G321"/>
-    </row>
-    <row r="322" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E322"/>
-      <c r="F322"/>
-      <c r="G322"/>
-    </row>
-    <row r="323" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E323"/>
-      <c r="F323"/>
-      <c r="G323"/>
-    </row>
-    <row r="324" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E324"/>
-      <c r="F324"/>
-      <c r="G324"/>
-    </row>
-    <row r="325" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E325"/>
-      <c r="F325"/>
-      <c r="G325"/>
-    </row>
-    <row r="326" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E326"/>
-      <c r="F326"/>
-      <c r="G326"/>
-    </row>
-    <row r="327" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E327"/>
-      <c r="F327"/>
-      <c r="G327"/>
-    </row>
-    <row r="328" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E328"/>
-      <c r="F328"/>
-      <c r="G328"/>
-    </row>
-    <row r="329" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E329"/>
-      <c r="F329"/>
-      <c r="G329"/>
-    </row>
-    <row r="330" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A305" s="81"/>
+      <c r="B305" s="61"/>
+      <c r="C305" s="61"/>
+      <c r="D305" s="61"/>
+      <c r="E305" s="61"/>
+      <c r="F305" s="61"/>
+      <c r="G305" s="61"/>
+    </row>
+    <row r="306" spans="1:26" s="85" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A306" s="81"/>
+      <c r="B306" s="61"/>
+      <c r="C306" s="61"/>
+      <c r="D306" s="61"/>
+      <c r="E306" s="61"/>
+      <c r="F306" s="61"/>
+      <c r="G306" s="61"/>
+      <c r="H306" s="76"/>
+      <c r="I306" s="61"/>
+      <c r="J306"/>
+      <c r="K306"/>
+      <c r="L306"/>
+      <c r="M306"/>
+      <c r="N306"/>
+      <c r="O306"/>
+      <c r="P306"/>
+      <c r="Q306"/>
+      <c r="R306"/>
+      <c r="S306"/>
+      <c r="T306"/>
+      <c r="U306"/>
+      <c r="V306"/>
+      <c r="W306"/>
+      <c r="X306"/>
+      <c r="Y306"/>
+      <c r="Z306"/>
+    </row>
+    <row r="307" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="81"/>
+      <c r="B307" s="91"/>
+      <c r="C307" s="61"/>
+      <c r="D307" s="61"/>
+      <c r="E307" s="61"/>
+      <c r="F307" s="61"/>
+      <c r="G307" s="61"/>
+    </row>
+    <row r="308" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A308" s="81">
+        <v>1</v>
+      </c>
+      <c r="B308" s="61"/>
+      <c r="C308" s="61"/>
+      <c r="D308" s="61"/>
+      <c r="E308" s="61"/>
+      <c r="F308" s="61"/>
+      <c r="G308" s="61"/>
+    </row>
+    <row r="309" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A309" s="81">
+        <v>2</v>
+      </c>
+      <c r="B309" s="61"/>
+      <c r="C309" s="61"/>
+      <c r="D309" s="61"/>
+      <c r="E309" s="61"/>
+      <c r="F309" s="61"/>
+      <c r="G309" s="61"/>
+    </row>
+    <row r="310" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A310" s="81">
+        <v>3</v>
+      </c>
+      <c r="B310" s="61"/>
+      <c r="C310" s="61"/>
+      <c r="D310" s="61"/>
+      <c r="E310" s="61"/>
+      <c r="F310" s="61"/>
+      <c r="G310" s="61"/>
+    </row>
+    <row r="311" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A311" s="81">
+        <v>4</v>
+      </c>
+      <c r="B311" s="61"/>
+      <c r="C311" s="61"/>
+      <c r="D311" s="61"/>
+      <c r="E311" s="61"/>
+      <c r="F311" s="61"/>
+      <c r="G311" s="61"/>
+    </row>
+    <row r="312" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A312" s="81">
+        <v>5</v>
+      </c>
+      <c r="B312" s="61"/>
+      <c r="C312" s="61"/>
+      <c r="D312" s="61"/>
+      <c r="E312" s="61"/>
+      <c r="F312" s="61"/>
+      <c r="G312" s="61"/>
+    </row>
+    <row r="313" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A313" s="81">
+        <v>6</v>
+      </c>
+      <c r="B313" s="61"/>
+      <c r="C313" s="61"/>
+      <c r="D313" s="61"/>
+      <c r="E313" s="61"/>
+      <c r="F313" s="61"/>
+      <c r="G313" s="61"/>
+    </row>
+    <row r="314" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A314" s="81">
+        <v>7</v>
+      </c>
+      <c r="B314" s="61"/>
+      <c r="C314" s="61"/>
+      <c r="D314" s="61"/>
+      <c r="E314" s="61"/>
+      <c r="F314" s="61"/>
+      <c r="G314" s="61"/>
+    </row>
+    <row r="315" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A315" s="81">
+        <v>8</v>
+      </c>
+      <c r="B315" s="61"/>
+      <c r="C315" s="61"/>
+      <c r="D315" s="61"/>
+      <c r="E315" s="61"/>
+      <c r="F315" s="61"/>
+      <c r="G315" s="61"/>
+    </row>
+    <row r="316" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A316" s="81">
+        <v>9</v>
+      </c>
+      <c r="B316" s="61"/>
+      <c r="C316" s="61"/>
+      <c r="D316" s="61"/>
+      <c r="E316" s="61"/>
+      <c r="F316" s="61"/>
+      <c r="G316" s="61"/>
+    </row>
+    <row r="317" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A317" s="81">
+        <v>10</v>
+      </c>
+      <c r="B317" s="61"/>
+      <c r="C317" s="61"/>
+      <c r="D317" s="61"/>
+      <c r="E317" s="61"/>
+      <c r="F317" s="61"/>
+      <c r="G317" s="61"/>
+    </row>
+    <row r="318" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A318" s="81">
+        <v>11</v>
+      </c>
+      <c r="B318" s="61"/>
+      <c r="C318" s="61"/>
+      <c r="D318" s="61"/>
+      <c r="E318" s="61"/>
+      <c r="F318" s="61"/>
+      <c r="G318" s="61"/>
+    </row>
+    <row r="319" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A319" s="81">
+        <v>12</v>
+      </c>
+      <c r="B319" s="61"/>
+      <c r="C319" s="61"/>
+      <c r="D319" s="61"/>
+      <c r="E319" s="61"/>
+      <c r="F319" s="61"/>
+      <c r="G319" s="61"/>
+    </row>
+    <row r="320" spans="1:26" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A320" s="81">
+        <v>13</v>
+      </c>
+      <c r="B320" s="61"/>
+      <c r="C320" s="61"/>
+      <c r="D320" s="61"/>
+      <c r="E320" s="61"/>
+      <c r="F320" s="61"/>
+      <c r="G320" s="61"/>
+    </row>
+    <row r="321" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A321" s="81">
+        <v>14</v>
+      </c>
+      <c r="B321" s="61"/>
+      <c r="C321" s="61"/>
+      <c r="D321" s="61"/>
+      <c r="E321" s="61"/>
+      <c r="F321" s="61"/>
+      <c r="G321" s="61"/>
+    </row>
+    <row r="322" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A322" s="81">
+        <v>15</v>
+      </c>
+      <c r="B322" s="61"/>
+      <c r="C322" s="61"/>
+      <c r="D322" s="61"/>
+      <c r="E322" s="61"/>
+      <c r="F322" s="61"/>
+      <c r="G322" s="61"/>
+    </row>
+    <row r="323" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A323" s="81">
+        <v>16</v>
+      </c>
+      <c r="B323" s="61"/>
+      <c r="C323" s="61"/>
+      <c r="D323" s="61"/>
+      <c r="E323" s="61"/>
+      <c r="F323" s="61"/>
+      <c r="G323" s="61"/>
+    </row>
+    <row r="324" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A324" s="81">
+        <v>17</v>
+      </c>
+      <c r="B324" s="61"/>
+      <c r="C324" s="61"/>
+      <c r="D324" s="61"/>
+      <c r="E324" s="61"/>
+      <c r="F324" s="61"/>
+      <c r="G324" s="61"/>
+    </row>
+    <row r="325" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A325" s="81">
+        <v>18</v>
+      </c>
+      <c r="B325" s="61"/>
+      <c r="C325" s="61"/>
+      <c r="D325" s="61"/>
+      <c r="E325" s="61"/>
+      <c r="F325" s="61"/>
+      <c r="G325" s="61"/>
+    </row>
+    <row r="326" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A326" s="81">
+        <v>19</v>
+      </c>
+      <c r="B326" s="61"/>
+      <c r="C326" s="61"/>
+      <c r="D326" s="61"/>
+      <c r="E326" s="61"/>
+      <c r="F326" s="61"/>
+      <c r="G326" s="61"/>
+    </row>
+    <row r="327" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A327" s="81">
+        <v>20</v>
+      </c>
+      <c r="B327" s="61"/>
+      <c r="C327" s="61"/>
+      <c r="D327" s="61"/>
+      <c r="E327" s="61"/>
+      <c r="F327" s="61"/>
+      <c r="G327" s="61"/>
+    </row>
+    <row r="328" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A328" s="81"/>
+      <c r="B328" s="61"/>
+      <c r="C328" s="61"/>
+      <c r="D328" s="61"/>
+      <c r="E328" s="61"/>
+      <c r="F328" s="61"/>
+      <c r="G328" s="61"/>
+    </row>
+    <row r="329" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A329" s="81"/>
+      <c r="B329" s="61"/>
+      <c r="C329" s="61"/>
+      <c r="D329" s="61"/>
+      <c r="E329" s="61"/>
+      <c r="F329" s="61"/>
+      <c r="G329" s="61"/>
+    </row>
+    <row r="330" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A330" s="81"/>
       <c r="E330"/>
       <c r="F330"/>
       <c r="G330"/>
     </row>
-    <row r="331" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A331" s="81"/>
       <c r="E331"/>
       <c r="F331"/>
       <c r="G331"/>
     </row>
-    <row r="332" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A332" s="81"/>
       <c r="E332"/>
       <c r="F332"/>
       <c r="G332"/>
     </row>
-    <row r="333" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A333" s="81"/>
       <c r="E333"/>
       <c r="F333"/>
       <c r="G333"/>
     </row>
-    <row r="334" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A334" s="81"/>
       <c r="E334"/>
       <c r="F334"/>
       <c r="G334"/>
     </row>
-    <row r="335" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E335"/>
       <c r="F335"/>
       <c r="G335"/>
     </row>
-    <row r="336" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E336"/>
       <c r="F336"/>
       <c r="G336"/>
@@ -35888,63 +36540,93 @@
       <c r="G540"/>
     </row>
     <row r="541" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E541" s="3"/>
+      <c r="E541"/>
+      <c r="F541"/>
+      <c r="G541"/>
     </row>
     <row r="542" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E542" s="3"/>
+      <c r="E542"/>
+      <c r="F542"/>
+      <c r="G542"/>
     </row>
     <row r="543" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E543" s="3"/>
+      <c r="E543"/>
+      <c r="F543"/>
+      <c r="G543"/>
     </row>
     <row r="544" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E544" s="3"/>
-    </row>
-    <row r="545" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E545" s="3"/>
-    </row>
-    <row r="546" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E546" s="3"/>
-    </row>
-    <row r="547" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E547" s="3"/>
-    </row>
-    <row r="548" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E548" s="3"/>
-    </row>
-    <row r="549" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E549" s="3"/>
-    </row>
-    <row r="550" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E550" s="3"/>
-    </row>
-    <row r="551" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E551" s="3"/>
-    </row>
-    <row r="552" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E552" s="3"/>
-    </row>
-    <row r="553" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E553" s="3"/>
-    </row>
-    <row r="554" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E554" s="3"/>
-    </row>
-    <row r="555" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E555" s="3"/>
-    </row>
-    <row r="556" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E544"/>
+      <c r="F544"/>
+      <c r="G544"/>
+    </row>
+    <row r="545" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E545"/>
+      <c r="F545"/>
+      <c r="G545"/>
+    </row>
+    <row r="546" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E546"/>
+      <c r="F546"/>
+      <c r="G546"/>
+    </row>
+    <row r="547" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E547"/>
+      <c r="F547"/>
+      <c r="G547"/>
+    </row>
+    <row r="548" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E548"/>
+      <c r="F548"/>
+      <c r="G548"/>
+    </row>
+    <row r="549" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E549"/>
+      <c r="F549"/>
+      <c r="G549"/>
+    </row>
+    <row r="550" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E550"/>
+      <c r="F550"/>
+      <c r="G550"/>
+    </row>
+    <row r="551" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E551"/>
+      <c r="F551"/>
+      <c r="G551"/>
+    </row>
+    <row r="552" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E552"/>
+      <c r="F552"/>
+      <c r="G552"/>
+    </row>
+    <row r="553" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E553"/>
+      <c r="F553"/>
+      <c r="G553"/>
+    </row>
+    <row r="554" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E554"/>
+      <c r="F554"/>
+      <c r="G554"/>
+    </row>
+    <row r="555" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E555"/>
+      <c r="F555"/>
+      <c r="G555"/>
+    </row>
+    <row r="556" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E556" s="3"/>
     </row>
-    <row r="557" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E557" s="3"/>
     </row>
-    <row r="558" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E558" s="3"/>
     </row>
-    <row r="559" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E559" s="3"/>
     </row>
-    <row r="560" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E560" s="3"/>
     </row>
     <row r="561" spans="5:5" x14ac:dyDescent="0.25">
@@ -37891,16 +38573,62 @@
     <row r="1208" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E1208" s="3"/>
     </row>
+    <row r="1209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1209" s="3"/>
+    </row>
+    <row r="1210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1210" s="3"/>
+    </row>
+    <row r="1211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1211" s="3"/>
+    </row>
+    <row r="1212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1212" s="3"/>
+    </row>
+    <row r="1213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1213" s="3"/>
+    </row>
+    <row r="1214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1214" s="3"/>
+    </row>
+    <row r="1215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1215" s="3"/>
+    </row>
+    <row r="1216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1216" s="3"/>
+    </row>
+    <row r="1217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1217" s="3"/>
+    </row>
+    <row r="1218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1218" s="3"/>
+    </row>
+    <row r="1219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1219" s="3"/>
+    </row>
+    <row r="1220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1220" s="3"/>
+    </row>
+    <row r="1221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1221" s="3"/>
+    </row>
+    <row r="1222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1222" s="3"/>
+    </row>
+    <row r="1223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1223" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="D1:D1208"/>
+  <autoFilter ref="D1:D1223"/>
   <conditionalFormatting sqref="B72:B73 B75:B76">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B257:C257">
+  <conditionalFormatting sqref="B272:C272">
     <cfRule type="uniqueValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
